--- a/data/nzd0167/nzd0167.xlsx
+++ b/data/nzd0167/nzd0167.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M579"/>
+  <dimension ref="A1:M583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23851,6 +23851,186 @@
         </is>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>357.16</v>
+      </c>
+      <c r="C580" t="n">
+        <v>373.62</v>
+      </c>
+      <c r="D580" t="n">
+        <v>364.4354545454545</v>
+      </c>
+      <c r="E580" t="n">
+        <v>365.23</v>
+      </c>
+      <c r="F580" t="n">
+        <v>369.89</v>
+      </c>
+      <c r="G580" t="n">
+        <v>376.27</v>
+      </c>
+      <c r="H580" t="n">
+        <v>373.5066666666667</v>
+      </c>
+      <c r="I580" t="n">
+        <v>372.6723076923077</v>
+      </c>
+      <c r="J580" t="n">
+        <v>373.5723076923077</v>
+      </c>
+      <c r="K580" t="n">
+        <v>367.2154545454546</v>
+      </c>
+      <c r="L580" t="n">
+        <v>358.86</v>
+      </c>
+      <c r="M580" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>378.93</v>
+      </c>
+      <c r="C581" t="n">
+        <v>388.86</v>
+      </c>
+      <c r="D581" t="n">
+        <v>380.1745454545455</v>
+      </c>
+      <c r="E581" t="n">
+        <v>381.45</v>
+      </c>
+      <c r="F581" t="n">
+        <v>390.38</v>
+      </c>
+      <c r="G581" t="n">
+        <v>397.93</v>
+      </c>
+      <c r="H581" t="n">
+        <v>392.3833333333333</v>
+      </c>
+      <c r="I581" t="n">
+        <v>387.5876923076923</v>
+      </c>
+      <c r="J581" t="n">
+        <v>389.8076923076923</v>
+      </c>
+      <c r="K581" t="n">
+        <v>382.6645454545454</v>
+      </c>
+      <c r="L581" t="n">
+        <v>379.97</v>
+      </c>
+      <c r="M581" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>368.4</v>
+      </c>
+      <c r="C582" t="n">
+        <v>373.35</v>
+      </c>
+      <c r="D582" t="n">
+        <v>371.3663636363637</v>
+      </c>
+      <c r="E582" t="n">
+        <v>374.67</v>
+      </c>
+      <c r="F582" t="n">
+        <v>378</v>
+      </c>
+      <c r="G582" t="n">
+        <v>388.37</v>
+      </c>
+      <c r="H582" t="n">
+        <v>383.6833333333333</v>
+      </c>
+      <c r="I582" t="n">
+        <v>379.3669230769231</v>
+      </c>
+      <c r="J582" t="n">
+        <v>382.4869230769231</v>
+      </c>
+      <c r="K582" t="n">
+        <v>371.1463636363636</v>
+      </c>
+      <c r="L582" t="n">
+        <v>368.48</v>
+      </c>
+      <c r="M582" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>374.94</v>
+      </c>
+      <c r="C583" t="n">
+        <v>399.73</v>
+      </c>
+      <c r="D583" t="n">
+        <v>376.2027272727273</v>
+      </c>
+      <c r="E583" t="n">
+        <v>375.37</v>
+      </c>
+      <c r="F583" t="n">
+        <v>377.31</v>
+      </c>
+      <c r="G583" t="n">
+        <v>385.53</v>
+      </c>
+      <c r="H583" t="n">
+        <v>382.0433333333333</v>
+      </c>
+      <c r="I583" t="n">
+        <v>378.5807692307693</v>
+      </c>
+      <c r="J583" t="n">
+        <v>376.8007692307692</v>
+      </c>
+      <c r="K583" t="n">
+        <v>383.9527272727273</v>
+      </c>
+      <c r="L583" t="n">
+        <v>374.07</v>
+      </c>
+      <c r="M583" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23862,7 +24042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B608"/>
+  <dimension ref="A1:B612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29950,6 +30130,46 @@
       </c>
       <c r="B608" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -30118,28 +30338,28 @@
         <v>0.0404</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2347270614659837</v>
+        <v>-0.2483548157885932</v>
       </c>
       <c r="J2" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K2" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03121266726506711</v>
+        <v>0.03499608938041865</v>
       </c>
       <c r="M2" t="n">
-        <v>7.359353075475252</v>
+        <v>7.377266645208535</v>
       </c>
       <c r="N2" t="n">
-        <v>92.3366684955211</v>
+        <v>92.69027885055974</v>
       </c>
       <c r="O2" t="n">
-        <v>9.609197078607613</v>
+        <v>9.627579075269116</v>
       </c>
       <c r="P2" t="n">
-        <v>384.0219553759558</v>
+        <v>384.1534846701225</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -30195,28 +30415,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06936050808134475</v>
+        <v>-0.07179685809335054</v>
       </c>
       <c r="J3" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K3" t="n">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002506933641943432</v>
+        <v>0.002703570129915511</v>
       </c>
       <c r="M3" t="n">
-        <v>7.471807336151042</v>
+        <v>7.499923383419394</v>
       </c>
       <c r="N3" t="n">
-        <v>100.2701110823172</v>
+        <v>100.5091474384455</v>
       </c>
       <c r="O3" t="n">
-        <v>10.01349644641257</v>
+        <v>10.02542505026323</v>
       </c>
       <c r="P3" t="n">
-        <v>387.0104172305686</v>
+        <v>387.034654078246</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -30272,28 +30492,28 @@
         <v>0.0558</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05636153413323574</v>
+        <v>-0.0638181642999819</v>
       </c>
       <c r="J4" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K4" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003910833050396523</v>
+        <v>0.005044257279375075</v>
       </c>
       <c r="M4" t="n">
-        <v>4.996452416932207</v>
+        <v>5.005118991206818</v>
       </c>
       <c r="N4" t="n">
-        <v>42.82819495924564</v>
+        <v>42.9154416374955</v>
       </c>
       <c r="O4" t="n">
-        <v>6.544325401387498</v>
+        <v>6.550987836769009</v>
       </c>
       <c r="P4" t="n">
-        <v>378.7864149652196</v>
+        <v>378.8601120853085</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -30349,28 +30569,28 @@
         <v>0.0505</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05562530654238599</v>
+        <v>0.0453206803530321</v>
       </c>
       <c r="J5" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K5" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003206970078817206</v>
+        <v>0.002143702625918564</v>
       </c>
       <c r="M5" t="n">
-        <v>5.566338357873781</v>
+        <v>5.582024375964911</v>
       </c>
       <c r="N5" t="n">
-        <v>51.82279903953874</v>
+        <v>51.98822587964042</v>
       </c>
       <c r="O5" t="n">
-        <v>7.198805389753131</v>
+        <v>7.210286116350753</v>
       </c>
       <c r="P5" t="n">
-        <v>378.9552903506838</v>
+        <v>379.0553996071596</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -30426,28 +30646,28 @@
         <v>0.0516</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08265209713174061</v>
+        <v>0.07775790930557262</v>
       </c>
       <c r="J6" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K6" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005766010169404256</v>
+        <v>0.005153697556079417</v>
       </c>
       <c r="M6" t="n">
-        <v>6.111404681257177</v>
+        <v>6.121896773747225</v>
       </c>
       <c r="N6" t="n">
-        <v>64.19709486184719</v>
+        <v>64.18512476766649</v>
       </c>
       <c r="O6" t="n">
-        <v>8.012308959460261</v>
+        <v>8.011561943071182</v>
       </c>
       <c r="P6" t="n">
-        <v>379.7883837846344</v>
+        <v>379.8354629586833</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -30503,28 +30723,28 @@
         <v>0.0555</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1100632261085367</v>
+        <v>0.1083227585635687</v>
       </c>
       <c r="J7" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K7" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009027298737428358</v>
+        <v>0.008835726983487113</v>
       </c>
       <c r="M7" t="n">
-        <v>6.469044810433468</v>
+        <v>6.466657974299691</v>
       </c>
       <c r="N7" t="n">
-        <v>71.52553507181661</v>
+        <v>71.43602777582974</v>
       </c>
       <c r="O7" t="n">
-        <v>8.457277048306779</v>
+        <v>8.45198365922638</v>
       </c>
       <c r="P7" t="n">
-        <v>385.310017765303</v>
+        <v>385.3268643462067</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -30580,28 +30800,28 @@
         <v>0.061</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06562161617211859</v>
+        <v>0.06418111681743938</v>
       </c>
       <c r="J8" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K8" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00431992129595693</v>
+        <v>0.004175181284619356</v>
       </c>
       <c r="M8" t="n">
-        <v>5.625050248755813</v>
+        <v>5.62192261931205</v>
       </c>
       <c r="N8" t="n">
-        <v>53.36161290559823</v>
+        <v>53.29644774723234</v>
       </c>
       <c r="O8" t="n">
-        <v>7.30490334676635</v>
+        <v>7.300441613165079</v>
       </c>
       <c r="P8" t="n">
-        <v>382.1249198377258</v>
+        <v>382.1388938207247</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -30657,28 +30877,28 @@
         <v>0.068</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0107107914519566</v>
+        <v>0.01099034962163815</v>
       </c>
       <c r="J9" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K9" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001229822458974628</v>
+        <v>0.0001311638517591529</v>
       </c>
       <c r="M9" t="n">
-        <v>5.45438481755064</v>
+        <v>5.441571852868244</v>
       </c>
       <c r="N9" t="n">
-        <v>50.39947035064313</v>
+        <v>50.21253232588264</v>
       </c>
       <c r="O9" t="n">
-        <v>7.099258436670913</v>
+        <v>7.086080180599331</v>
       </c>
       <c r="P9" t="n">
-        <v>379.1112574628858</v>
+        <v>379.1085437543975</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -30734,28 +30954,28 @@
         <v>0.0665</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04330545280276306</v>
+        <v>-0.0433581939434092</v>
       </c>
       <c r="J10" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K10" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001773316433345662</v>
+        <v>0.00179881052633879</v>
       </c>
       <c r="M10" t="n">
-        <v>5.943291576408841</v>
+        <v>5.93937148887817</v>
       </c>
       <c r="N10" t="n">
-        <v>57.90150940654978</v>
+        <v>57.73243053527495</v>
       </c>
       <c r="O10" t="n">
-        <v>7.609304134186632</v>
+        <v>7.598186002940106</v>
       </c>
       <c r="P10" t="n">
-        <v>381.7957022166975</v>
+        <v>381.7962333863093</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -30811,28 +31031,28 @@
         <v>0.0554</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1518457141420816</v>
+        <v>-0.1516959398696679</v>
       </c>
       <c r="J11" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K11" t="n">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="L11" t="n">
-        <v>0.019246756444943</v>
+        <v>0.0194068773459678</v>
       </c>
       <c r="M11" t="n">
-        <v>6.219376491719269</v>
+        <v>6.226754038280401</v>
       </c>
       <c r="N11" t="n">
-        <v>64.6771125205685</v>
+        <v>64.56729383084374</v>
       </c>
       <c r="O11" t="n">
-        <v>8.04220818684573</v>
+        <v>8.03537764083579</v>
       </c>
       <c r="P11" t="n">
-        <v>380.0277071213188</v>
+        <v>380.0260989127229</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -30888,28 +31108,28 @@
         <v>0.0404</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2270505244477976</v>
+        <v>-0.240405558056451</v>
       </c>
       <c r="J12" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K12" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03238043830840598</v>
+        <v>0.03635040342923879</v>
       </c>
       <c r="M12" t="n">
-        <v>6.969130338486722</v>
+        <v>6.997944236695639</v>
       </c>
       <c r="N12" t="n">
-        <v>84.06197095941393</v>
+        <v>84.39648261498135</v>
       </c>
       <c r="O12" t="n">
-        <v>9.168531559601785</v>
+        <v>9.186755826459162</v>
       </c>
       <c r="P12" t="n">
-        <v>384.0940432220665</v>
+        <v>384.2217571503614</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -30946,7 +31166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M579"/>
+  <dimension ref="A1:M583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64423,6 +64643,274 @@
         </is>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>-36.77028838964909,174.77249606525183</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>-36.76516883546463,174.76772164640818</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>-36.76585605466741,174.76801464426345</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>-36.7664931377472,174.76842897362278</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>-36.767102868294394,174.76890231869058</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>-36.76767631739698,174.7694086671179</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>-36.768215993311564,174.76997490380873</t>
+        </is>
+      </c>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>-36.76874527794069,174.77057718451522</t>
+        </is>
+      </c>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>-36.76923583093256,174.77120979697295</t>
+        </is>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>-36.76967719187048,174.7719113090604</t>
+        </is>
+      </c>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>-36.77024610918452,174.77247811495798</t>
+        </is>
+      </c>
+      <c r="M580" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>-36.770177178687796,174.772696966623</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>-36.765106816018104,174.76787395668117</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>-36.765792056423436,174.7681719767432</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>-36.76642361132942,174.76858879214114</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>-36.7670098278041,174.76910057295555</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>-36.76755882774439,174.76960242184816</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>-36.76809967807359,174.77012920396342</t>
+        </is>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>-36.76865057828511,174.77069575692553</t>
+        </is>
+      </c>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>-36.7691212951092,174.77132296383618</t>
+        </is>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>-36.76956882869334,174.7720199667272</t>
+        </is>
+      </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>-36.77011128147493,174.77264494537104</t>
+        </is>
+      </c>
+      <c r="M581" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>-36.77023097070932,174.77259979207824</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>-36.76516993423265,174.76771894799558</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>-36.76582787225065,174.76808392765727</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>-36.76645267356881,174.76852198764223</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>-36.76706604264314,174.76898078834824</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>-36.767610683787126,174.76951690506024</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>-36.76815328621498,174.77005808917005</t>
+        </is>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>-36.76870277299823,174.77063040454547</t>
+        </is>
+      </c>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>-36.7691729409774,174.77127193530572</t>
+        </is>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>-36.769649619655105,174.77193895624418</t>
+        </is>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>-36.77018466711977,174.7725541410169</t>
+        </is>
+      </c>
+      <c r="M582" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>-36.77019756142857,174.77266014551537</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>-36.765062580247424,174.76798259252934</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>-36.76580820663759,174.76813227333153</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>-36.766449673044306,174.76852888486428</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>-36.76706917577694,174.76897411214114</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>-36.76762608870899,174.769491500469</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>-36.768163391653204,174.77004468361167</t>
+        </is>
+      </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>-36.768707764387564,174.77062415487933</t>
+        </is>
+      </c>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>-36.76921305510193,174.77123230061585</t>
+        </is>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>-36.76955979311059,174.7720290268473</t>
+        </is>
+      </c>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>-36.77014896427725,174.77259831826566</t>
+        </is>
+      </c>
+      <c r="M583" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0167/nzd0167.xlsx
+++ b/data/nzd0167/nzd0167.xlsx
@@ -30183,7 +30183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30274,35 +30274,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -30361,27 +30366,28 @@
       <c r="P2" t="n">
         <v>384.1534846701225</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.769199980657 -36.77211287719463, 174.77769273291509 -36.76741151283733)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.769199980657</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.77211287719463</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7776927329151</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.76741151283733</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7734463567861</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.76976219501598</v>
       </c>
     </row>
@@ -30438,27 +30444,28 @@
       <c r="P3" t="n">
         <v>387.034654078246</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.76398756749137 -36.76668922942245, 174.77318688696036 -36.76294325358032)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.7639875674914</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.76668922942245</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7731868869604</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.76294325358032</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.7685872272259</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.76481624150138</v>
       </c>
     </row>
@@ -30515,27 +30522,28 @@
       <c r="P4" t="n">
         <v>378.8601120853085</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.7643715676815 -36.767337864563736, 174.77357285837667 -36.76359494748067)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7643715676815</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.76733786456374</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.7735728583767</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.76359494748067</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7689722130291</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.7654664060222</v>
       </c>
     </row>
@@ -30592,27 +30600,28 @@
       <c r="P5" t="n">
         <v>379.0553996071596</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.76483021995918 -36.768058627314986, 174.77389944532365 -36.76411310780237)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.7648302199592</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.76805862731499</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.7738994453237</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.76411310780237</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7693648326414</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.76608586755868</v>
       </c>
     </row>
@@ -30669,27 +30678,28 @@
       <c r="P6" t="n">
         <v>379.8354629586833</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.7653233049881 -36.76878240086502, 174.77422874761376 -36.764602991021555)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.7653233049881</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.76878240086502</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7742287476138</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.76460299102155</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7697760263009</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.76669269594329</v>
       </c>
     </row>
@@ -30746,27 +30756,28 @@
       <c r="P7" t="n">
         <v>385.3268643462067</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.76604273191396 -36.769717258636454, 174.77427457160357 -36.76472551254547)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.766042731914</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.76971725863645</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7742745716036</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.76472551254547</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.7701586517588</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.76722138559096</v>
       </c>
     </row>
@@ -30823,27 +30834,28 @@
       <c r="P8" t="n">
         <v>382.1388938207247</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.76692171904807 -36.77051744728119, 174.77444268691443 -36.764847849442404)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.7669217190481</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.77051744728119</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.7744426869144</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.7648478494424</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.7706822029812</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.7676826483618</v>
       </c>
     </row>
@@ -30900,27 +30912,28 @@
       <c r="P9" t="n">
         <v>379.1085437543975</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.76761446727448 -36.771111385038985, 174.77492858097295 -36.76526974312039)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.7676144672745</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.77111138503899</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.774928580973</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.76526974312039</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.7712715241237</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.76819056407969</v>
       </c>
     </row>
@@ -30977,27 +30990,28 @@
       <c r="P10" t="n">
         <v>381.7962333863093</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.7686057622454 -36.77187124492203, 174.77501773666302 -36.7653815860528)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.7686057622454</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.77187124492203</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.775017736663</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.7653815860528</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.7718117494542</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.76862641548742</v>
       </c>
     </row>
@@ -31054,27 +31068,28 @@
       <c r="P11" t="n">
         <v>380.0260989127229</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.76932849325414 -36.77225289102588, 174.7757983679295 -36.765800421626416)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.7693284932541</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.77225289102588</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.7757983679295</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.76580042162642</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.7725634305918</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.76902665632615</v>
       </c>
     </row>
@@ -31131,27 +31146,28 @@
       <c r="P12" t="n">
         <v>384.2217571503614</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.76964198753947 -36.77253808251128, 174.77691295410548 -36.76666175938218)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.7696419875395</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.77253808251128</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.7769129541055</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.76666175938218</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.7732774708225</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.76959992094673</v>
       </c>
     </row>

--- a/data/nzd0167/nzd0167.xlsx
+++ b/data/nzd0167/nzd0167.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M583"/>
+  <dimension ref="A1:M587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24031,6 +24031,186 @@
         </is>
       </c>
     </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>374.55</v>
+      </c>
+      <c r="C584" t="n">
+        <v>386.59</v>
+      </c>
+      <c r="D584" t="n">
+        <v>380.9845454545454</v>
+      </c>
+      <c r="E584" t="n">
+        <v>380.06</v>
+      </c>
+      <c r="F584" t="n">
+        <v>378.53</v>
+      </c>
+      <c r="G584" t="n">
+        <v>384.25</v>
+      </c>
+      <c r="H584" t="n">
+        <v>379.0033333333333</v>
+      </c>
+      <c r="I584" t="n">
+        <v>377.8069230769231</v>
+      </c>
+      <c r="J584" t="n">
+        <v>381.4269230769231</v>
+      </c>
+      <c r="K584" t="n">
+        <v>376.8045454545455</v>
+      </c>
+      <c r="L584" t="n">
+        <v>375.03</v>
+      </c>
+      <c r="M584" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>384.07</v>
+      </c>
+      <c r="C585" t="n">
+        <v>390.19</v>
+      </c>
+      <c r="D585" t="n">
+        <v>385.4554545454546</v>
+      </c>
+      <c r="E585" t="n">
+        <v>386.31</v>
+      </c>
+      <c r="F585" t="n">
+        <v>390.58</v>
+      </c>
+      <c r="G585" t="n">
+        <v>398.94</v>
+      </c>
+      <c r="H585" t="n">
+        <v>391.5633333333333</v>
+      </c>
+      <c r="I585" t="n">
+        <v>388.6876923076923</v>
+      </c>
+      <c r="J585" t="n">
+        <v>387.0276923076924</v>
+      </c>
+      <c r="K585" t="n">
+        <v>381.7654545454546</v>
+      </c>
+      <c r="L585" t="n">
+        <v>386.95</v>
+      </c>
+      <c r="M585" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>372.54</v>
+      </c>
+      <c r="C586" t="n">
+        <v>378.22</v>
+      </c>
+      <c r="D586" t="n">
+        <v>375.7718181818182</v>
+      </c>
+      <c r="E586" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="F586" t="n">
+        <v>379.29</v>
+      </c>
+      <c r="G586" t="n">
+        <v>385.36</v>
+      </c>
+      <c r="H586" t="n">
+        <v>380.08</v>
+      </c>
+      <c r="I586" t="n">
+        <v>376.5792307692308</v>
+      </c>
+      <c r="J586" t="n">
+        <v>380.9392307692308</v>
+      </c>
+      <c r="K586" t="n">
+        <v>376.3218181818182</v>
+      </c>
+      <c r="L586" t="n">
+        <v>377.95</v>
+      </c>
+      <c r="M586" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>369.03</v>
+      </c>
+      <c r="C587" t="n">
+        <v>381.2</v>
+      </c>
+      <c r="D587" t="n">
+        <v>375.1018181818182</v>
+      </c>
+      <c r="E587" t="n">
+        <v>374.06</v>
+      </c>
+      <c r="F587" t="n">
+        <v>378.04</v>
+      </c>
+      <c r="G587" t="n">
+        <v>382.55</v>
+      </c>
+      <c r="H587" t="n">
+        <v>376.04</v>
+      </c>
+      <c r="I587" t="n">
+        <v>374.8061538461538</v>
+      </c>
+      <c r="J587" t="n">
+        <v>375.0561538461538</v>
+      </c>
+      <c r="K587" t="n">
+        <v>370.7418181818182</v>
+      </c>
+      <c r="L587" t="n">
+        <v>372.12</v>
+      </c>
+      <c r="M587" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24042,7 +24222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B612"/>
+  <dimension ref="A1:B617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30170,6 +30350,56 @@
       </c>
       <c r="B612" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -30343,28 +30573,28 @@
         <v>0.0404</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2483548157885932</v>
+        <v>-0.2529187672918985</v>
       </c>
       <c r="J2" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K2" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03499608938041865</v>
+        <v>0.03675246031949087</v>
       </c>
       <c r="M2" t="n">
-        <v>7.377266645208535</v>
+        <v>7.366560518276012</v>
       </c>
       <c r="N2" t="n">
-        <v>92.69027885055974</v>
+        <v>92.22784901367019</v>
       </c>
       <c r="O2" t="n">
-        <v>9.627579075269116</v>
+        <v>9.603533152630348</v>
       </c>
       <c r="P2" t="n">
-        <v>384.1534846701225</v>
+        <v>384.1981078013193</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30421,28 +30651,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07179685809335054</v>
+        <v>-0.07392274928549297</v>
       </c>
       <c r="J3" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K3" t="n">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002703570129915511</v>
+        <v>0.00291339281237446</v>
       </c>
       <c r="M3" t="n">
-        <v>7.499923383419394</v>
+        <v>7.469285768285594</v>
       </c>
       <c r="N3" t="n">
-        <v>100.5091474384455</v>
+        <v>99.76213920853812</v>
       </c>
       <c r="O3" t="n">
-        <v>10.02542505026323</v>
+        <v>9.988099879783848</v>
       </c>
       <c r="P3" t="n">
-        <v>387.034654078246</v>
+        <v>387.056489057991</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30499,28 +30729,28 @@
         <v>0.0558</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0638181642999819</v>
+        <v>-0.06023175001832383</v>
       </c>
       <c r="J4" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K4" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005044257279375075</v>
+        <v>0.004557101953131526</v>
       </c>
       <c r="M4" t="n">
-        <v>5.005118991206818</v>
+        <v>4.993989668916278</v>
       </c>
       <c r="N4" t="n">
-        <v>42.9154416374955</v>
+        <v>42.72889474361175</v>
       </c>
       <c r="O4" t="n">
-        <v>6.550987836769009</v>
+        <v>6.53673425676857</v>
       </c>
       <c r="P4" t="n">
-        <v>378.8601120853085</v>
+        <v>378.8244080492696</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30577,28 +30807,28 @@
         <v>0.0505</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0453206803530321</v>
+        <v>0.04346229748678428</v>
       </c>
       <c r="J5" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K5" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002143702625918564</v>
+        <v>0.00199946546201657</v>
       </c>
       <c r="M5" t="n">
-        <v>5.582024375964911</v>
+        <v>5.570805252964509</v>
       </c>
       <c r="N5" t="n">
-        <v>51.98822587964042</v>
+        <v>51.74117591971415</v>
       </c>
       <c r="O5" t="n">
-        <v>7.210286116350753</v>
+        <v>7.193133942845368</v>
       </c>
       <c r="P5" t="n">
-        <v>379.0553996071596</v>
+        <v>379.073760128899</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30655,28 +30885,28 @@
         <v>0.0516</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07775790930557262</v>
+        <v>0.0774029028423423</v>
       </c>
       <c r="J6" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K6" t="n">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005153697556079417</v>
+        <v>0.005178678585849417</v>
       </c>
       <c r="M6" t="n">
-        <v>6.121896773747225</v>
+        <v>6.10900478654417</v>
       </c>
       <c r="N6" t="n">
-        <v>64.18512476766649</v>
+        <v>63.87125788980079</v>
       </c>
       <c r="O6" t="n">
-        <v>8.011561943071182</v>
+        <v>7.991949567521107</v>
       </c>
       <c r="P6" t="n">
-        <v>379.8354629586833</v>
+        <v>379.8389475269151</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30733,28 +30963,28 @@
         <v>0.0555</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1083227585635687</v>
+        <v>0.1077945096438096</v>
       </c>
       <c r="J7" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K7" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008835726983487113</v>
+        <v>0.008858940090501033</v>
       </c>
       <c r="M7" t="n">
-        <v>6.466657974299691</v>
+        <v>6.460793018568888</v>
       </c>
       <c r="N7" t="n">
-        <v>71.43602777582974</v>
+        <v>71.1982890698538</v>
       </c>
       <c r="O7" t="n">
-        <v>8.45198365922638</v>
+        <v>8.437907860948341</v>
       </c>
       <c r="P7" t="n">
-        <v>385.3268643462067</v>
+        <v>385.3320871763656</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30811,28 +31041,28 @@
         <v>0.061</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06418111681743938</v>
+        <v>0.06075422685885654</v>
       </c>
       <c r="J8" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K8" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004175181284619356</v>
+        <v>0.003785132522018841</v>
       </c>
       <c r="M8" t="n">
-        <v>5.62192261931205</v>
+        <v>5.62641585581994</v>
       </c>
       <c r="N8" t="n">
-        <v>53.29644774723234</v>
+        <v>53.17803827898045</v>
       </c>
       <c r="O8" t="n">
-        <v>7.300441613165079</v>
+        <v>7.29232735681692</v>
       </c>
       <c r="P8" t="n">
-        <v>382.1388938207247</v>
+        <v>382.1725963412953</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30889,28 +31119,28 @@
         <v>0.068</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01099034962163815</v>
+        <v>0.01110646672259362</v>
       </c>
       <c r="J9" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K9" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001311638517591529</v>
+        <v>0.0001356653533051144</v>
       </c>
       <c r="M9" t="n">
-        <v>5.441571852868244</v>
+        <v>5.434281853376188</v>
       </c>
       <c r="N9" t="n">
-        <v>50.21253232588264</v>
+        <v>50.03894055711392</v>
       </c>
       <c r="O9" t="n">
-        <v>7.086080180599331</v>
+        <v>7.073820789157294</v>
       </c>
       <c r="P9" t="n">
-        <v>379.1085437543975</v>
+        <v>379.1074868583015</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30967,28 +31197,28 @@
         <v>0.0665</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0433581939434092</v>
+        <v>-0.04268837471774339</v>
       </c>
       <c r="J10" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K10" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00179881052633879</v>
+        <v>0.001769796485269648</v>
       </c>
       <c r="M10" t="n">
-        <v>5.93937148887817</v>
+        <v>5.916229574895215</v>
       </c>
       <c r="N10" t="n">
-        <v>57.73243053527495</v>
+        <v>57.39811914282983</v>
       </c>
       <c r="O10" t="n">
-        <v>7.598186002940106</v>
+        <v>7.576154640899949</v>
       </c>
       <c r="P10" t="n">
-        <v>381.7962333863093</v>
+        <v>381.7898386207491</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31045,28 +31275,28 @@
         <v>0.0554</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1516959398696679</v>
+        <v>-0.151283202419755</v>
       </c>
       <c r="J11" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K11" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0194068773459678</v>
+        <v>0.01959823046772868</v>
       </c>
       <c r="M11" t="n">
-        <v>6.226754038280401</v>
+        <v>6.19836787772271</v>
       </c>
       <c r="N11" t="n">
-        <v>64.56729383084374</v>
+        <v>64.14056248181927</v>
       </c>
       <c r="O11" t="n">
-        <v>8.03537764083579</v>
+        <v>8.008780336719148</v>
       </c>
       <c r="P11" t="n">
-        <v>380.0260989127229</v>
+        <v>380.0221710417908</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31123,28 +31353,28 @@
         <v>0.0404</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.240405558056451</v>
+        <v>-0.2405124819196041</v>
       </c>
       <c r="J12" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K12" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03635040342923879</v>
+        <v>0.03691032728436727</v>
       </c>
       <c r="M12" t="n">
-        <v>6.997944236695639</v>
+        <v>6.976527440818798</v>
       </c>
       <c r="N12" t="n">
-        <v>84.39648261498135</v>
+        <v>83.93591169947312</v>
       </c>
       <c r="O12" t="n">
-        <v>9.186755826459162</v>
+        <v>9.161654419343327</v>
       </c>
       <c r="P12" t="n">
-        <v>384.2217571503614</v>
+        <v>384.2228289706838</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31182,7 +31412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M583"/>
+  <dimension ref="A1:M587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64927,6 +65157,274 @@
         </is>
       </c>
     </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>-36.77019955372596,174.7726565464587</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>-36.76511605383479,174.76785127006195</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>-36.76578876279843,174.76818007372893</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>-36.766429569520106,174.76857509623775</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>-36.76706363603287,174.76898591644897</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>-36.76763303177067,174.76948005050903</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>-36.76818212368126,174.7700198342746</t>
+        </is>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>-36.7687126776335,174.77061800305455</t>
+        </is>
+      </c>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>-36.76918041896313,174.77126454669917</t>
+        </is>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>-36.76960993197838,174.77197875178592</t>
+        </is>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>-36.770142832839404,174.77260590505202</t>
+        </is>
+      </c>
+      <c r="M584" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>-36.770150921206124,174.7727444003014</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>-36.76510140355087,174.76788724883875</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>-36.765770583161625,174.76822476616937</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>-36.76640277908239,174.76863667852018</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>-36.76700891964744,174.76910250808507</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>-36.767553349225985,174.76961145656477</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>-36.768104730796686,174.77012250119404</t>
+        </is>
+      </c>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>-36.76864359424213,174.7707045015528</t>
+        </is>
+      </c>
+      <c r="J585" t="inlineStr">
+        <is>
+          <t>-36.769140907191854,174.77130358619272</t>
+        </is>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>-36.76957513510887,174.77201364318415</t>
+        </is>
+      </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>-36.770066700781385,174.77270010754862</t>
+        </is>
+      </c>
+      <c r="M585" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>-36.77020982171849,174.7726379974712</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>-36.7651501157041,174.76776761935173</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>-36.765809958800126,174.76812796584204</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>-36.76644701543655,174.7685349938319</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>-36.76706018504419,174.76899326995135</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>-36.767627010834424,174.76948997977132</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>-36.76817548942189,174.77002863508287</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>-36.76872047240479,174.77060824329908</t>
+        </is>
+      </c>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>-36.76918385948763,174.77126114729626</t>
+        </is>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>-36.76961331792943,174.77197535663444</t>
+        </is>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>-36.770124183046484,174.77262898151977</t>
+        </is>
+      </c>
+      <c r="M586" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>-36.77022775238538,174.77260560594374</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>-36.76513798854571,174.76779740181163</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>-36.765812683153825,174.76812126833158</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>-36.76645528831128,174.76851597720545</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>-36.767065861012185,174.76898117537473</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>-36.767642253022814,174.76946484352774</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>-36.76820038329595,174.7699956116087</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>-36.76873172988954,174.77059414790938</t>
+        </is>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>-36.76922536284219,174.77122013996416</t>
+        </is>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>-36.76965245722148,174.7719361109637</t>
+        </is>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>-36.770161418758974,174.77258290760213</t>
+        </is>
+      </c>
+      <c r="M587" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0167/nzd0167.xlsx
+++ b/data/nzd0167/nzd0167.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M587"/>
+  <dimension ref="A1:M592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24211,6 +24211,229 @@
         </is>
       </c>
     </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>375.91</v>
+      </c>
+      <c r="C588" t="n">
+        <v>384.89</v>
+      </c>
+      <c r="D588" t="n">
+        <v>361.7336363636364</v>
+      </c>
+      <c r="E588" t="n">
+        <v>370.3</v>
+      </c>
+      <c r="F588" t="n">
+        <v>375.47</v>
+      </c>
+      <c r="G588" t="n">
+        <v>386.08</v>
+      </c>
+      <c r="H588" t="n">
+        <v>384.67</v>
+      </c>
+      <c r="I588" t="n">
+        <v>378.2115384615385</v>
+      </c>
+      <c r="J588" t="n">
+        <v>376.0915384615385</v>
+      </c>
+      <c r="K588" t="n">
+        <v>381.4136363636364</v>
+      </c>
+      <c r="L588" t="n">
+        <v>378.12</v>
+      </c>
+      <c r="M588" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>368.53</v>
+      </c>
+      <c r="C589" t="n">
+        <v>375.3</v>
+      </c>
+      <c r="D589" t="n">
+        <v>374.5409090909091</v>
+      </c>
+      <c r="E589" t="n">
+        <v>379.21</v>
+      </c>
+      <c r="F589" t="n">
+        <v>373.1</v>
+      </c>
+      <c r="G589" t="n">
+        <v>378.18</v>
+      </c>
+      <c r="H589" t="n">
+        <v>375.6766666666667</v>
+      </c>
+      <c r="I589" t="n">
+        <v>369.1246153846154</v>
+      </c>
+      <c r="J589" t="n">
+        <v>372.3746153846154</v>
+      </c>
+      <c r="K589" t="n">
+        <v>373.7909090909091</v>
+      </c>
+      <c r="L589" t="n">
+        <v>367.76</v>
+      </c>
+      <c r="M589" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>367.92</v>
+      </c>
+      <c r="C590" t="n">
+        <v>387.62</v>
+      </c>
+      <c r="D590" t="n">
+        <v>376.41</v>
+      </c>
+      <c r="E590" t="n">
+        <v>371.2</v>
+      </c>
+      <c r="F590" t="n">
+        <v>379.19</v>
+      </c>
+      <c r="G590" t="n">
+        <v>382</v>
+      </c>
+      <c r="H590" t="n">
+        <v>385.7933333333333</v>
+      </c>
+      <c r="I590" t="n">
+        <v>379.5284615384616</v>
+      </c>
+      <c r="J590" t="n">
+        <v>376.9584615384616</v>
+      </c>
+      <c r="K590" t="n">
+        <v>377.83</v>
+      </c>
+      <c r="L590" t="n">
+        <v>368.67</v>
+      </c>
+      <c r="M590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>370.72</v>
+      </c>
+      <c r="C591" t="n">
+        <v>412.53</v>
+      </c>
+      <c r="D591" t="n">
+        <v>384.6872727272727</v>
+      </c>
+      <c r="E591" t="n">
+        <v>371.24</v>
+      </c>
+      <c r="F591" t="n">
+        <v>372.32</v>
+      </c>
+      <c r="G591" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="H591" t="n">
+        <v>374.8666666666667</v>
+      </c>
+      <c r="I591" t="n">
+        <v>373.1746153846154</v>
+      </c>
+      <c r="J591" t="n">
+        <v>373.4246153846154</v>
+      </c>
+      <c r="K591" t="n">
+        <v>378.7672727272728</v>
+      </c>
+      <c r="L591" t="n">
+        <v>367.94</v>
+      </c>
+      <c r="M591" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>379.11</v>
+      </c>
+      <c r="C592" t="inlineStr"/>
+      <c r="D592" t="n">
+        <v>367.5609090909091</v>
+      </c>
+      <c r="E592" t="n">
+        <v>373.99</v>
+      </c>
+      <c r="F592" t="n">
+        <v>374.96</v>
+      </c>
+      <c r="G592" t="n">
+        <v>385.45</v>
+      </c>
+      <c r="H592" t="n">
+        <v>385.7</v>
+      </c>
+      <c r="I592" t="n">
+        <v>377.8538461538461</v>
+      </c>
+      <c r="J592" t="n">
+        <v>382.7538461538462</v>
+      </c>
+      <c r="K592" t="n">
+        <v>375.110909090909</v>
+      </c>
+      <c r="L592" t="n">
+        <v>379.21</v>
+      </c>
+      <c r="M592" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24222,7 +24445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B617"/>
+  <dimension ref="A1:B622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30400,6 +30623,56 @@
       </c>
       <c r="B617" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
@@ -30573,28 +30846,28 @@
         <v>0.0404</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2529187672918985</v>
+        <v>-0.2635504898823101</v>
       </c>
       <c r="J2" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="K2" t="n">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03675246031949087</v>
+        <v>0.0404315735326064</v>
       </c>
       <c r="M2" t="n">
-        <v>7.366560518276012</v>
+        <v>7.354848764246838</v>
       </c>
       <c r="N2" t="n">
-        <v>92.22784901367019</v>
+        <v>91.73864158554515</v>
       </c>
       <c r="O2" t="n">
-        <v>9.603533152630348</v>
+        <v>9.57802910757454</v>
       </c>
       <c r="P2" t="n">
-        <v>384.1981078013193</v>
+        <v>384.3025605512076</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30651,28 +30924,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07392274928549297</v>
+        <v>-0.06503617010762741</v>
       </c>
       <c r="J3" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="K3" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00291339281237446</v>
+        <v>0.002252773162876753</v>
       </c>
       <c r="M3" t="n">
-        <v>7.469285768285594</v>
+        <v>7.494314755856782</v>
       </c>
       <c r="N3" t="n">
-        <v>99.76213920853812</v>
+        <v>100.8358946536627</v>
       </c>
       <c r="O3" t="n">
-        <v>9.988099879783848</v>
+        <v>10.04170775583828</v>
       </c>
       <c r="P3" t="n">
-        <v>387.056489057991</v>
+        <v>386.9651496348497</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30729,28 +31002,28 @@
         <v>0.0558</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06023175001832383</v>
+        <v>-0.06925711926268913</v>
       </c>
       <c r="J4" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="K4" t="n">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004557101953131526</v>
+        <v>0.006028676170681035</v>
       </c>
       <c r="M4" t="n">
-        <v>4.993989668916278</v>
+        <v>5.021011347021847</v>
       </c>
       <c r="N4" t="n">
-        <v>42.72889474361175</v>
+        <v>43.13069793612026</v>
       </c>
       <c r="O4" t="n">
-        <v>6.53673425676857</v>
+        <v>6.56739658739445</v>
       </c>
       <c r="P4" t="n">
-        <v>378.8244080492696</v>
+        <v>378.9151772705086</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30807,28 +31080,28 @@
         <v>0.0505</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04346229748678428</v>
+        <v>0.02925009552637392</v>
       </c>
       <c r="J5" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="K5" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00199946546201657</v>
+        <v>0.0009157354886863978</v>
       </c>
       <c r="M5" t="n">
-        <v>5.570805252964509</v>
+        <v>5.59235695251094</v>
       </c>
       <c r="N5" t="n">
-        <v>51.74117591971415</v>
+        <v>51.80844338677674</v>
       </c>
       <c r="O5" t="n">
-        <v>7.193133942845368</v>
+        <v>7.19780823492657</v>
       </c>
       <c r="P5" t="n">
-        <v>379.073760128899</v>
+        <v>379.2142833270875</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30885,28 +31158,28 @@
         <v>0.0516</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0774029028423423</v>
+        <v>0.06380793031919374</v>
       </c>
       <c r="J6" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="K6" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005178678585849417</v>
+        <v>0.003572505820038874</v>
       </c>
       <c r="M6" t="n">
-        <v>6.10900478654417</v>
+        <v>6.116042974147977</v>
       </c>
       <c r="N6" t="n">
-        <v>63.87125788980079</v>
+        <v>63.73432791019948</v>
       </c>
       <c r="O6" t="n">
-        <v>7.991949567521107</v>
+        <v>7.983378226678195</v>
       </c>
       <c r="P6" t="n">
-        <v>379.8389475269151</v>
+        <v>379.9720062637504</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30963,28 +31236,28 @@
         <v>0.0555</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1077945096438096</v>
+        <v>0.0948082920384461</v>
       </c>
       <c r="J7" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="K7" t="n">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008858940090501033</v>
+        <v>0.006957123848644331</v>
       </c>
       <c r="M7" t="n">
-        <v>6.460793018568888</v>
+        <v>6.462982309852878</v>
       </c>
       <c r="N7" t="n">
-        <v>71.1982890698538</v>
+        <v>71.06159706179632</v>
       </c>
       <c r="O7" t="n">
-        <v>8.437907860948341</v>
+        <v>8.429804093915607</v>
       </c>
       <c r="P7" t="n">
-        <v>385.3320871763656</v>
+        <v>385.4601543423357</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31041,28 +31314,28 @@
         <v>0.061</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06075422685885654</v>
+        <v>0.05599502536924421</v>
       </c>
       <c r="J8" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="K8" t="n">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003785132522018841</v>
+        <v>0.003267741629078058</v>
       </c>
       <c r="M8" t="n">
-        <v>5.62641585581994</v>
+        <v>5.615615563236234</v>
       </c>
       <c r="N8" t="n">
-        <v>53.17803827898045</v>
+        <v>52.94154760010464</v>
       </c>
       <c r="O8" t="n">
-        <v>7.29232735681692</v>
+        <v>7.276094254481909</v>
       </c>
       <c r="P8" t="n">
-        <v>382.1725963412953</v>
+        <v>382.2196535008546</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31119,28 +31392,28 @@
         <v>0.068</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01110646672259362</v>
+        <v>0.003501480363347514</v>
       </c>
       <c r="J9" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="K9" t="n">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001356653533051144</v>
+        <v>1.370019791036015e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>5.434281853376188</v>
+        <v>5.416692547240707</v>
       </c>
       <c r="N9" t="n">
-        <v>50.03894055711392</v>
+        <v>49.82236915664858</v>
       </c>
       <c r="O9" t="n">
-        <v>7.073820789157294</v>
+        <v>7.058496239047562</v>
       </c>
       <c r="P9" t="n">
-        <v>379.1074868583015</v>
+        <v>379.1820998309758</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31197,28 +31470,28 @@
         <v>0.0665</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04268837471774339</v>
+        <v>-0.05133358711676234</v>
       </c>
       <c r="J10" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="K10" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001769796485269648</v>
+        <v>0.002597967061613082</v>
       </c>
       <c r="M10" t="n">
-        <v>5.916229574895215</v>
+        <v>5.91313482320365</v>
       </c>
       <c r="N10" t="n">
-        <v>57.39811914282983</v>
+        <v>57.12951148123637</v>
       </c>
       <c r="O10" t="n">
-        <v>7.576154640899949</v>
+        <v>7.558406676094927</v>
       </c>
       <c r="P10" t="n">
-        <v>381.7898386207491</v>
+        <v>381.874051751545</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31275,28 +31548,28 @@
         <v>0.0554</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.151283202419755</v>
+        <v>-0.1487807816331793</v>
       </c>
       <c r="J11" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="K11" t="n">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01959823046772868</v>
+        <v>0.01934659348822043</v>
       </c>
       <c r="M11" t="n">
-        <v>6.19836787772271</v>
+        <v>6.159050565787471</v>
       </c>
       <c r="N11" t="n">
-        <v>64.14056248181927</v>
+        <v>63.54801039742525</v>
       </c>
       <c r="O11" t="n">
-        <v>8.008780336719148</v>
+        <v>7.971700596323551</v>
       </c>
       <c r="P11" t="n">
-        <v>380.0221710417908</v>
+        <v>379.9976996480613</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31353,28 +31626,28 @@
         <v>0.0404</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2405124819196041</v>
+        <v>-0.2521080500135363</v>
       </c>
       <c r="J12" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="K12" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03691032728436727</v>
+        <v>0.04099261325682058</v>
       </c>
       <c r="M12" t="n">
-        <v>6.976527440818798</v>
+        <v>6.979886823921734</v>
       </c>
       <c r="N12" t="n">
-        <v>83.93591169947312</v>
+        <v>83.66271293492068</v>
       </c>
       <c r="O12" t="n">
-        <v>9.161654419343327</v>
+        <v>9.14673236379641</v>
       </c>
       <c r="P12" t="n">
-        <v>384.2228289706838</v>
+        <v>384.3357134897177</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31412,7 +31685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M587"/>
+  <dimension ref="A1:M592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65425,6 +65698,337 @@
         </is>
       </c>
     </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>-36.77019260622692,174.77266909701453</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>-36.76512297202074,174.76783428007917</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>-36.765867040772044,174.7679876360848</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>-36.7664714054059,174.76847892925792</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>-36.76707753079865,174.76895630891948</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>-36.76762310536185,174.76949642037303</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>-36.76814720651974,174.77006615430102</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>-36.7687101086799,174.77062121961512</t>
+        </is>
+      </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>-36.76921805851324,174.7712273570004</t>
+        </is>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>-36.7695776028366,174.77201116875398</t>
+        </is>
+      </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>-36.77012309727074,174.7726303250124</t>
+        </is>
+      </c>
+      <c r="M588" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>-36.770230306610735,174.77260099176482</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>-36.765161998684526,174.76773843652936</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>-36.765814963921834,174.76811566132452</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>-36.76643321301726,174.76856672104395</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>-36.76708829242608,174.76893337759014</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>-36.76766595705658,174.76942575262365</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>-36.768202622101036,174.76999264167475</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>-36.76876780266952,174.77054898148324</t>
+        </is>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>-36.76924428029257,174.77120144858455</t>
+        </is>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>-36.76963107025891,174.77195755606144</t>
+        </is>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>-36.77018926569586,174.77254845092108</t>
+        </is>
+      </c>
+      <c r="M589" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>-36.77023342276545,174.77259536246606</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>-36.76511186222687,174.76786156399118</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>-36.765807363825175,174.76813434528844</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>-36.76646754759171,174.76848779711915</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>-36.767060639121674,174.76899230238527</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>-36.76764523636869,174.76945992362124</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>-36.76814028470394,174.77007533656007</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>-36.76870174737026,174.77063168872337</t>
+        </is>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>-36.76921194262975,174.77123339979272</t>
+        </is>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>-36.76960273922329,174.7719859640841</t>
+        </is>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>-36.7701834536066,174.77255564256984</t>
+        </is>
+      </c>
+      <c r="M590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>-36.77021911910237,174.7726212018663</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>-36.76501049016409,174.76811051682313</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>-36.76577370674819,174.76821708721357</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>-36.7664673761333,174.76848819124632</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>-36.767091834226584,174.76892583056892</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>-36.767678324373655,174.7694053573597</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>-36.76820761319834,174.76998602062872</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>-36.7687420887277,174.7705811777012</t>
+        </is>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>-36.76923687285752,174.77120876749933</t>
+        </is>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>-36.769596164993764,174.77199255617464</t>
+        </is>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>-36.77018811605186,174.7725498734451</t>
+        </is>
+      </c>
+      <c r="M591" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>-36.7701762591654,174.7726986277251</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr"/>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>-36.76584334596962,174.76804588722737</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>-36.76645558836367,174.76851528748315</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>-36.76707984659226,174.7689513743302</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>-36.76762652265037,174.76949078484657</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>-36.768140859810316,174.7700745736425</t>
+        </is>
+      </c>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>-36.76871237971304,174.77061837607775</t>
+        </is>
+      </c>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>-36.76917105791416,174.7712737958617</t>
+        </is>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>-36.76962181150116,174.771966839982</t>
+        </is>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>-36.770116135531794,174.77263893917018</t>
+        </is>
+      </c>
+      <c r="M592" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0167/nzd0167.xlsx
+++ b/data/nzd0167/nzd0167.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M592"/>
+  <dimension ref="A1:M594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24400,7 +24400,9 @@
       <c r="B592" t="n">
         <v>379.11</v>
       </c>
-      <c r="C592" t="inlineStr"/>
+      <c r="C592" t="n">
+        <v>371.72</v>
+      </c>
       <c r="D592" t="n">
         <v>367.5609090909091</v>
       </c>
@@ -24429,6 +24431,96 @@
         <v>379.21</v>
       </c>
       <c r="M592" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>385.85</v>
+      </c>
+      <c r="C593" t="n">
+        <v>388.51</v>
+      </c>
+      <c r="D593" t="n">
+        <v>375.2481818181818</v>
+      </c>
+      <c r="E593" t="n">
+        <v>385.52</v>
+      </c>
+      <c r="F593" t="n">
+        <v>388.15</v>
+      </c>
+      <c r="G593" t="n">
+        <v>396.9</v>
+      </c>
+      <c r="H593" t="n">
+        <v>393.0666666666667</v>
+      </c>
+      <c r="I593" t="n">
+        <v>385.4492307692308</v>
+      </c>
+      <c r="J593" t="n">
+        <v>386.1892307692308</v>
+      </c>
+      <c r="K593" t="n">
+        <v>385.5081818181818</v>
+      </c>
+      <c r="L593" t="n">
+        <v>386.7</v>
+      </c>
+      <c r="M593" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>367.68</v>
+      </c>
+      <c r="C594" t="n">
+        <v>386.53</v>
+      </c>
+      <c r="D594" t="n">
+        <v>371.0981818181818</v>
+      </c>
+      <c r="E594" t="n">
+        <v>374.09</v>
+      </c>
+      <c r="F594" t="n">
+        <v>375.88</v>
+      </c>
+      <c r="G594" t="n">
+        <v>380.86</v>
+      </c>
+      <c r="H594" t="n">
+        <v>381.0266666666667</v>
+      </c>
+      <c r="I594" t="n">
+        <v>377.2476923076923</v>
+      </c>
+      <c r="J594" t="n">
+        <v>378.7476923076923</v>
+      </c>
+      <c r="K594" t="n">
+        <v>375.9181818181818</v>
+      </c>
+      <c r="L594" t="n">
+        <v>366.85</v>
+      </c>
+      <c r="M594" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -24445,7 +24537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B622"/>
+  <dimension ref="A1:B624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30673,6 +30765,26 @@
       </c>
       <c r="B622" t="n">
         <v>1.05</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>-0.89</v>
       </c>
     </row>
   </sheetData>
@@ -30846,28 +30958,28 @@
         <v>0.0404</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2635504898823101</v>
+        <v>-0.2641563251732498</v>
       </c>
       <c r="J2" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0404315735326064</v>
+        <v>0.04079984662731606</v>
       </c>
       <c r="M2" t="n">
-        <v>7.354848764246838</v>
+        <v>7.362365667858428</v>
       </c>
       <c r="N2" t="n">
-        <v>91.73864158554515</v>
+        <v>91.70214134509372</v>
       </c>
       <c r="O2" t="n">
-        <v>9.57802910757454</v>
+        <v>9.576123503020089</v>
       </c>
       <c r="P2" t="n">
-        <v>384.3025605512076</v>
+        <v>384.3085649834351</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30924,28 +31036,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06503617010762741</v>
+        <v>-0.06905783374973073</v>
       </c>
       <c r="J3" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K3" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002252773162876753</v>
+        <v>0.002562226079355856</v>
       </c>
       <c r="M3" t="n">
-        <v>7.494314755856782</v>
+        <v>7.483470584536621</v>
       </c>
       <c r="N3" t="n">
-        <v>100.8358946536627</v>
+        <v>100.5828945682459</v>
       </c>
       <c r="O3" t="n">
-        <v>10.04170775583828</v>
+        <v>10.02910238098335</v>
       </c>
       <c r="P3" t="n">
-        <v>386.9651496348497</v>
+        <v>387.0064927272422</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31002,28 +31114,28 @@
         <v>0.0558</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06925711926268913</v>
+        <v>-0.07256529044387196</v>
       </c>
       <c r="J4" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K4" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006028676170681035</v>
+        <v>0.00665917127501281</v>
       </c>
       <c r="M4" t="n">
-        <v>5.021011347021847</v>
+        <v>5.017134423431322</v>
       </c>
       <c r="N4" t="n">
-        <v>43.13069793612026</v>
+        <v>43.02817774255</v>
       </c>
       <c r="O4" t="n">
-        <v>6.56739658739445</v>
+        <v>6.55958670516291</v>
       </c>
       <c r="P4" t="n">
-        <v>378.9151772705086</v>
+        <v>378.9485546551732</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31080,28 +31192,28 @@
         <v>0.0505</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02925009552637392</v>
+        <v>0.02911412455187281</v>
       </c>
       <c r="J5" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K5" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0009157354886863978</v>
+        <v>0.0009126417570368694</v>
       </c>
       <c r="M5" t="n">
-        <v>5.59235695251094</v>
+        <v>5.592942109761209</v>
       </c>
       <c r="N5" t="n">
-        <v>51.80844338677674</v>
+        <v>51.72760908707476</v>
       </c>
       <c r="O5" t="n">
-        <v>7.19780823492657</v>
+        <v>7.192190840562753</v>
       </c>
       <c r="P5" t="n">
-        <v>379.2142833270875</v>
+        <v>379.2156555722499</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31158,28 +31270,28 @@
         <v>0.0516</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06380793031919374</v>
+        <v>0.06411791128948459</v>
       </c>
       <c r="J6" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K6" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003572505820038874</v>
+        <v>0.003628948957812628</v>
       </c>
       <c r="M6" t="n">
-        <v>6.116042974147977</v>
+        <v>6.116115424010045</v>
       </c>
       <c r="N6" t="n">
-        <v>63.73432791019948</v>
+        <v>63.62628362535803</v>
       </c>
       <c r="O6" t="n">
-        <v>7.983378226678195</v>
+        <v>7.976608529027736</v>
       </c>
       <c r="P6" t="n">
-        <v>379.9720062637504</v>
+        <v>379.9689920483386</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31236,28 +31348,28 @@
         <v>0.0555</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0948082920384461</v>
+        <v>0.09556568875215907</v>
       </c>
       <c r="J7" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K7" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006957123848644331</v>
+        <v>0.007100822412609897</v>
       </c>
       <c r="M7" t="n">
-        <v>6.462982309852878</v>
+        <v>6.469267659853197</v>
       </c>
       <c r="N7" t="n">
-        <v>71.06159706179632</v>
+        <v>71.03804227714024</v>
       </c>
       <c r="O7" t="n">
-        <v>8.429804093915607</v>
+        <v>8.428406864712942</v>
       </c>
       <c r="P7" t="n">
-        <v>385.4601543423357</v>
+        <v>385.4527035141752</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31314,28 +31426,28 @@
         <v>0.061</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05599502536924421</v>
+        <v>0.05865862773740402</v>
       </c>
       <c r="J8" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K8" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003267741629078058</v>
+        <v>0.003601855012837274</v>
       </c>
       <c r="M8" t="n">
-        <v>5.615615563236234</v>
+        <v>5.61602535134016</v>
       </c>
       <c r="N8" t="n">
-        <v>52.94154760010464</v>
+        <v>52.91933909286201</v>
       </c>
       <c r="O8" t="n">
-        <v>7.276094254481909</v>
+        <v>7.274567966062452</v>
       </c>
       <c r="P8" t="n">
-        <v>382.2196535008546</v>
+        <v>382.1932815271522</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31392,28 +31504,28 @@
         <v>0.068</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003501480363347514</v>
+        <v>0.005139900206463262</v>
       </c>
       <c r="J9" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K9" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L9" t="n">
-        <v>1.370019791036015e-05</v>
+        <v>2.97221149885285e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>5.416692547240707</v>
+        <v>5.41150731236146</v>
       </c>
       <c r="N9" t="n">
-        <v>49.82236915664858</v>
+        <v>49.70381396489621</v>
       </c>
       <c r="O9" t="n">
-        <v>7.058496239047562</v>
+        <v>7.050093188383839</v>
       </c>
       <c r="P9" t="n">
-        <v>379.1820998309758</v>
+        <v>379.1660062866101</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31470,28 +31582,28 @@
         <v>0.0665</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05133358711676234</v>
+        <v>-0.04983133006140882</v>
       </c>
       <c r="J10" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K10" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002597967061613082</v>
+        <v>0.002466154883719152</v>
       </c>
       <c r="M10" t="n">
-        <v>5.91313482320365</v>
+        <v>5.90317279435829</v>
       </c>
       <c r="N10" t="n">
-        <v>57.12951148123637</v>
+        <v>56.96460746194731</v>
       </c>
       <c r="O10" t="n">
-        <v>7.558406676094927</v>
+        <v>7.547490143216307</v>
       </c>
       <c r="P10" t="n">
-        <v>381.874051751545</v>
+        <v>381.8593952161183</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31548,28 +31660,28 @@
         <v>0.0554</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1487807816331793</v>
+        <v>-0.1451730356702572</v>
       </c>
       <c r="J11" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K11" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01934659348822043</v>
+        <v>0.01853758809428607</v>
       </c>
       <c r="M11" t="n">
-        <v>6.159050565787471</v>
+        <v>6.152172231744532</v>
       </c>
       <c r="N11" t="n">
-        <v>63.54801039742525</v>
+        <v>63.46215507046644</v>
       </c>
       <c r="O11" t="n">
-        <v>7.971700596323551</v>
+        <v>7.966313769270355</v>
       </c>
       <c r="P11" t="n">
-        <v>379.9976996480613</v>
+        <v>379.9623213278351</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31626,28 +31738,28 @@
         <v>0.0404</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2521080500135363</v>
+        <v>-0.2529745838914567</v>
       </c>
       <c r="J12" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K12" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04099261325682058</v>
+        <v>0.04141038172951328</v>
       </c>
       <c r="M12" t="n">
-        <v>6.979886823921734</v>
+        <v>6.99328307552457</v>
       </c>
       <c r="N12" t="n">
-        <v>83.66271293492068</v>
+        <v>83.73010454956565</v>
       </c>
       <c r="O12" t="n">
-        <v>9.14673236379641</v>
+        <v>9.150415539720896</v>
       </c>
       <c r="P12" t="n">
-        <v>384.3357134897177</v>
+        <v>384.3442098181538</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31685,7 +31797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M592"/>
+  <dimension ref="A1:M594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34754,7 +34866,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>-36.769641585197135,174.77194701254288</t>
+          <t>-36.76964158519713,174.77194701254288</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -44029,7 +44141,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>-36.76705777843339,174.76899839805128</t>
+          <t>-36.76705777843338,174.76899839805128</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -64399,7 +64511,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>-36.76509574691064,174.76790114064045</t>
+          <t>-36.76509574691063,174.76790114064045</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -64429,7 +64541,7 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>-36.768725185408364,174.77060234219283</t>
+          <t>-36.76872518540836,174.77060234219283</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
@@ -65977,7 +66089,11 @@
           <t>-36.7701762591654,174.7726986277251</t>
         </is>
       </c>
-      <c r="C592" t="inlineStr"/>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>-36.7651765675346,174.767702657577</t>
+        </is>
+      </c>
       <c r="D592" t="inlineStr">
         <is>
           <t>-36.76584334596962,174.76804588722737</t>
@@ -66024,6 +66140,140 @@
         </is>
       </c>
       <c r="M592" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>-36.77014182814402,174.7727608267427</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>-36.76510824035135,174.76787045874465</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>-36.7658120880101,174.76812273142414</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>-36.766406165395445,174.7686288945221</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>-36.76701995374898,174.76907899625837</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>-36.767564414747646,174.76959320822493</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>-36.76809546747074,174.7701347896039</t>
+        </is>
+      </c>
+      <c r="I593" t="inlineStr">
+        <is>
+          <t>-36.76866415565363,174.7706787568764</t>
+        </is>
+      </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>-36.769146822290914,174.77129774179915</t>
+        </is>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>-36.76954888281889,174.77203996676366</t>
+        </is>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>-36.770068297511514,174.772698131827</t>
+        </is>
+      </c>
+      <c r="M593" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>-36.77023464879347,174.77259314765988</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>-36.7651162980061,174.76785067041556</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>-36.76582896273051,174.76808124683436</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>-36.76645515971739,174.7685162728007</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>-36.76707566908209,174.76896027594205</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>-36.76765142003047,174.76944972599563</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>-36.76816965620261,174.77003637325356</t>
+        </is>
+      </c>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>-36.768716228259365,174.77061355735162</t>
+        </is>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>-36.769199320139954,174.77124587142674</t>
+        </is>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>-36.769616149120075,174.77197251775053</t>
+        </is>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>-36.77019507778471,174.77254125927118</t>
+        </is>
+      </c>
+      <c r="M594" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0167/nzd0167.xlsx
+++ b/data/nzd0167/nzd0167.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M594"/>
+  <dimension ref="A1:M595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24526,6 +24526,51 @@
         </is>
       </c>
     </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>383.54</v>
+      </c>
+      <c r="C595" t="n">
+        <v>390.7</v>
+      </c>
+      <c r="D595" t="n">
+        <v>379.8690909090909</v>
+      </c>
+      <c r="E595" t="n">
+        <v>380.78</v>
+      </c>
+      <c r="F595" t="n">
+        <v>386.78</v>
+      </c>
+      <c r="G595" t="n">
+        <v>386.34</v>
+      </c>
+      <c r="H595" t="n">
+        <v>387.0166666666667</v>
+      </c>
+      <c r="I595" t="n">
+        <v>385.5853846153847</v>
+      </c>
+      <c r="J595" t="n">
+        <v>383.0653846153846</v>
+      </c>
+      <c r="K595" t="n">
+        <v>381.8590909090909</v>
+      </c>
+      <c r="L595" t="n">
+        <v>383.23</v>
+      </c>
+      <c r="M595" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24537,7 +24582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B624"/>
+  <dimension ref="A1:B625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30785,6 +30830,16 @@
       </c>
       <c r="B624" t="n">
         <v>-0.89</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -30958,28 +31013,28 @@
         <v>0.0404</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2641563251732498</v>
+        <v>-0.2617372654287041</v>
       </c>
       <c r="J2" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K2" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04079984662731606</v>
+        <v>0.04021964055315941</v>
       </c>
       <c r="M2" t="n">
-        <v>7.362365667858428</v>
+        <v>7.358438055557728</v>
       </c>
       <c r="N2" t="n">
-        <v>91.70214134509372</v>
+        <v>91.58632625733885</v>
       </c>
       <c r="O2" t="n">
-        <v>9.576123503020089</v>
+        <v>9.57007451681223</v>
       </c>
       <c r="P2" t="n">
-        <v>384.3085649834351</v>
+        <v>384.284706619541</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31036,28 +31091,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06905783374973073</v>
+        <v>-0.06664458902593104</v>
       </c>
       <c r="J3" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K3" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002562226079355856</v>
+        <v>0.002395747275640736</v>
       </c>
       <c r="M3" t="n">
-        <v>7.483470584536621</v>
+        <v>7.47883243411677</v>
       </c>
       <c r="N3" t="n">
-        <v>100.5828945682459</v>
+        <v>100.4158977411742</v>
       </c>
       <c r="O3" t="n">
-        <v>10.02910238098335</v>
+        <v>10.02077331053718</v>
       </c>
       <c r="P3" t="n">
-        <v>387.0064927272422</v>
+        <v>386.9816197087071</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31114,28 +31169,28 @@
         <v>0.0558</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.07256529044387196</v>
+        <v>-0.07140242484013909</v>
       </c>
       <c r="J4" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K4" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00665917127501281</v>
+        <v>0.006474325755347787</v>
       </c>
       <c r="M4" t="n">
-        <v>5.017134423431322</v>
+        <v>5.011943188544888</v>
       </c>
       <c r="N4" t="n">
-        <v>43.02817774255</v>
+        <v>42.95098263329941</v>
       </c>
       <c r="O4" t="n">
-        <v>6.55958670516291</v>
+        <v>6.553699919381373</v>
       </c>
       <c r="P4" t="n">
-        <v>378.9485546551732</v>
+        <v>378.9368062649177</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31192,28 +31247,28 @@
         <v>0.0505</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02911412455187281</v>
+        <v>0.02944013448271197</v>
       </c>
       <c r="J5" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K5" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0009126417570368694</v>
+        <v>0.0009371452375603884</v>
       </c>
       <c r="M5" t="n">
-        <v>5.592942109761209</v>
+        <v>5.582689295341929</v>
       </c>
       <c r="N5" t="n">
-        <v>51.72760908707476</v>
+        <v>51.61986494171811</v>
       </c>
       <c r="O5" t="n">
-        <v>7.192190840562753</v>
+        <v>7.184696579655825</v>
       </c>
       <c r="P5" t="n">
-        <v>379.2156555722499</v>
+        <v>379.2124199490792</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31270,28 +31325,28 @@
         <v>0.0516</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06411791128948459</v>
+        <v>0.0661486051769869</v>
       </c>
       <c r="J6" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K6" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003628948957812628</v>
+        <v>0.003874527162597285</v>
       </c>
       <c r="M6" t="n">
-        <v>6.116115424010045</v>
+        <v>6.11407052272093</v>
       </c>
       <c r="N6" t="n">
-        <v>63.62628362535803</v>
+        <v>63.54893605003127</v>
       </c>
       <c r="O6" t="n">
-        <v>7.976608529027736</v>
+        <v>7.971758654778209</v>
       </c>
       <c r="P6" t="n">
-        <v>379.9689920483386</v>
+        <v>379.9490414565508</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31348,28 +31403,28 @@
         <v>0.0555</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09556568875215907</v>
+        <v>0.09495019368134833</v>
       </c>
       <c r="J7" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K7" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007100822412609897</v>
+        <v>0.00703899510576389</v>
       </c>
       <c r="M7" t="n">
-        <v>6.469267659853197</v>
+        <v>6.459355719460508</v>
       </c>
       <c r="N7" t="n">
-        <v>71.03804227714024</v>
+        <v>70.89869025943021</v>
       </c>
       <c r="O7" t="n">
-        <v>8.428406864712942</v>
+        <v>8.420136000055475</v>
       </c>
       <c r="P7" t="n">
-        <v>385.4527035141752</v>
+        <v>385.4587954439477</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31426,28 +31481,28 @@
         <v>0.061</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05865862773740402</v>
+        <v>0.05995948182355604</v>
       </c>
       <c r="J8" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K8" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003601855012837274</v>
+        <v>0.003776955474700916</v>
       </c>
       <c r="M8" t="n">
-        <v>5.61602535134016</v>
+        <v>5.610704434690407</v>
       </c>
       <c r="N8" t="n">
-        <v>52.91933909286201</v>
+        <v>52.83285082645918</v>
       </c>
       <c r="O8" t="n">
-        <v>7.274567966062452</v>
+        <v>7.268620971440124</v>
       </c>
       <c r="P8" t="n">
-        <v>382.1932815271522</v>
+        <v>382.1803684966369</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31504,28 +31559,28 @@
         <v>0.068</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005139900206463262</v>
+        <v>0.007617516336567176</v>
       </c>
       <c r="J9" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K9" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L9" t="n">
-        <v>2.97221149885285e-05</v>
+        <v>6.545148963021941e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>5.41150731236146</v>
+        <v>5.413662248659922</v>
       </c>
       <c r="N9" t="n">
-        <v>49.70381396489621</v>
+        <v>49.682354818622</v>
       </c>
       <c r="O9" t="n">
-        <v>7.050093188383839</v>
+        <v>7.04857111893056</v>
       </c>
       <c r="P9" t="n">
-        <v>379.1660062866101</v>
+        <v>379.1416040721128</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31582,28 +31637,28 @@
         <v>0.0665</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04983133006140882</v>
+        <v>-0.04885634657469683</v>
       </c>
       <c r="J10" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K10" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002466154883719152</v>
+        <v>0.002380268697120047</v>
       </c>
       <c r="M10" t="n">
-        <v>5.90317279435829</v>
+        <v>5.895518002748588</v>
       </c>
       <c r="N10" t="n">
-        <v>56.96460746194731</v>
+        <v>56.85922526540516</v>
       </c>
       <c r="O10" t="n">
-        <v>7.547490143216307</v>
+        <v>7.540505637250407</v>
       </c>
       <c r="P10" t="n">
-        <v>381.8593952161183</v>
+        <v>381.8498568800736</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31660,28 +31715,28 @@
         <v>0.0554</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1451730356702572</v>
+        <v>-0.142940591492537</v>
       </c>
       <c r="J11" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K11" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01853758809428607</v>
+        <v>0.0180376828562745</v>
       </c>
       <c r="M11" t="n">
-        <v>6.152172231744532</v>
+        <v>6.150362067345271</v>
       </c>
       <c r="N11" t="n">
-        <v>63.46215507046644</v>
+        <v>63.39444943450626</v>
       </c>
       <c r="O11" t="n">
-        <v>7.966313769270355</v>
+        <v>7.962063139319246</v>
       </c>
       <c r="P11" t="n">
-        <v>379.9623213278351</v>
+        <v>379.9403793239724</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31738,28 +31793,28 @@
         <v>0.0404</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2529745838914567</v>
+        <v>-0.250797371223816</v>
       </c>
       <c r="J12" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K12" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04141038172951328</v>
+        <v>0.04087107308376492</v>
       </c>
       <c r="M12" t="n">
-        <v>6.99328307552457</v>
+        <v>6.987558594347808</v>
       </c>
       <c r="N12" t="n">
-        <v>83.73010454956565</v>
+        <v>83.61464593777244</v>
       </c>
       <c r="O12" t="n">
-        <v>9.150415539720896</v>
+        <v>9.14410443607095</v>
       </c>
       <c r="P12" t="n">
-        <v>384.3442098181538</v>
+        <v>384.3229350203583</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31797,7 +31852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M594"/>
+  <dimension ref="A1:M595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66279,6 +66334,73 @@
         </is>
       </c>
     </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>-36.77015362869047,174.77273950928162</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>-36.76509932809313,174.76789234583097</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>-36.76579329846371,174.76816892333426</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>-36.76642648326325,174.7685821905189</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>-36.76702617461907,174.76906574061638</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>-36.76762169505223,174.7694987461457</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>-36.76813274670197,174.77008533622904</t>
+        </is>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>-36.768663291195345,174.77067983925377</t>
+        </is>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>-36.76916886010257,174.7712759674039</t>
+        </is>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>-36.76957447832344,174.7720143017534</t>
+        </is>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>-36.7700904601225,174.77267070880288</t>
+        </is>
+      </c>
+      <c r="M595" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0167/nzd0167.xlsx
+++ b/data/nzd0167/nzd0167.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M595"/>
+  <dimension ref="A1:M598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24571,6 +24571,129 @@
         </is>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>364.18</v>
+      </c>
+      <c r="C596" t="inlineStr"/>
+      <c r="D596" t="n">
+        <v>375.5327272727272</v>
+      </c>
+      <c r="E596" t="n">
+        <v>380.67</v>
+      </c>
+      <c r="F596" t="n">
+        <v>373.24</v>
+      </c>
+      <c r="G596" t="n">
+        <v>374.67</v>
+      </c>
+      <c r="H596" t="n">
+        <v>377.3866666666667</v>
+      </c>
+      <c r="I596" t="n">
+        <v>373.3492307692308</v>
+      </c>
+      <c r="J596" t="n">
+        <v>381.4692307692308</v>
+      </c>
+      <c r="K596" t="n">
+        <v>374.8927272727273</v>
+      </c>
+      <c r="L596" t="n">
+        <v>366.27</v>
+      </c>
+      <c r="M596" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>377.54</v>
+      </c>
+      <c r="C597" t="n">
+        <v>382.67</v>
+      </c>
+      <c r="D597" t="n">
+        <v>378.4572727272728</v>
+      </c>
+      <c r="E597" t="n">
+        <v>384.17</v>
+      </c>
+      <c r="F597" t="inlineStr"/>
+      <c r="G597" t="inlineStr"/>
+      <c r="H597" t="n">
+        <v>388.4733333333333</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="n">
+        <v>377.45</v>
+      </c>
+      <c r="M597" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>371.52</v>
+      </c>
+      <c r="C598" t="n">
+        <v>379.6</v>
+      </c>
+      <c r="D598" t="n">
+        <v>368.3081818181818</v>
+      </c>
+      <c r="E598" t="n">
+        <v>371.09</v>
+      </c>
+      <c r="F598" t="n">
+        <v>373.04</v>
+      </c>
+      <c r="G598" t="n">
+        <v>375.38</v>
+      </c>
+      <c r="H598" t="n">
+        <v>372.2633333333333</v>
+      </c>
+      <c r="I598" t="n">
+        <v>371.5930769230769</v>
+      </c>
+      <c r="J598" t="n">
+        <v>372.5930769230769</v>
+      </c>
+      <c r="K598" t="n">
+        <v>366.5181818181818</v>
+      </c>
+      <c r="L598" t="n">
+        <v>373.57</v>
+      </c>
+      <c r="M598" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24582,7 +24705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B625"/>
+  <dimension ref="A1:B628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30840,6 +30963,36 @@
       </c>
       <c r="B625" t="n">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -31013,28 +31166,28 @@
         <v>0.0404</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2617372654287041</v>
+        <v>-0.2693423657077935</v>
       </c>
       <c r="J2" t="n">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K2" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04021964055315941</v>
+        <v>0.042818499650776</v>
       </c>
       <c r="M2" t="n">
-        <v>7.358438055557728</v>
+        <v>7.356338412671687</v>
       </c>
       <c r="N2" t="n">
-        <v>91.58632625733885</v>
+        <v>91.45492089669423</v>
       </c>
       <c r="O2" t="n">
-        <v>9.57007451681223</v>
+        <v>9.5632066220852</v>
       </c>
       <c r="P2" t="n">
-        <v>384.284706619541</v>
+        <v>384.3598853526198</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31091,28 +31244,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06664458902593104</v>
+        <v>-0.07026323297393633</v>
       </c>
       <c r="J3" t="n">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K3" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002395747275640736</v>
+        <v>0.002683960357655613</v>
       </c>
       <c r="M3" t="n">
-        <v>7.47883243411677</v>
+        <v>7.462674203262214</v>
       </c>
       <c r="N3" t="n">
-        <v>100.4158977411742</v>
+        <v>100.034130012618</v>
       </c>
       <c r="O3" t="n">
-        <v>10.02077331053718</v>
+        <v>10.00170635504852</v>
       </c>
       <c r="P3" t="n">
-        <v>386.9816197087071</v>
+        <v>387.0191106673664</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31169,28 +31322,28 @@
         <v>0.0558</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.07140242484013909</v>
+        <v>-0.07509840491435887</v>
       </c>
       <c r="J4" t="n">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K4" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006474325755347787</v>
+        <v>0.007220855374840851</v>
       </c>
       <c r="M4" t="n">
-        <v>5.011943188544888</v>
+        <v>5.005615395421349</v>
       </c>
       <c r="N4" t="n">
-        <v>42.95098263329941</v>
+        <v>42.84661928946249</v>
       </c>
       <c r="O4" t="n">
-        <v>6.553699919381373</v>
+        <v>6.545732906975543</v>
       </c>
       <c r="P4" t="n">
-        <v>378.9368062649177</v>
+        <v>378.9743265066487</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31247,28 +31400,28 @@
         <v>0.0505</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02944013448271197</v>
+        <v>0.02784750388428706</v>
       </c>
       <c r="J5" t="n">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K5" t="n">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0009371452375603884</v>
+        <v>0.0008460064834007186</v>
       </c>
       <c r="M5" t="n">
-        <v>5.582689295341929</v>
+        <v>5.577330552094555</v>
       </c>
       <c r="N5" t="n">
-        <v>51.61986494171811</v>
+        <v>51.49842874416282</v>
       </c>
       <c r="O5" t="n">
-        <v>7.184696579655825</v>
+        <v>7.17624057178707</v>
       </c>
       <c r="P5" t="n">
-        <v>379.2124199490792</v>
+        <v>379.2283432535062</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31325,28 +31478,28 @@
         <v>0.0516</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0661486051769869</v>
+        <v>0.05948176008879069</v>
       </c>
       <c r="J6" t="n">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K6" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003874527162597285</v>
+        <v>0.003147045600125575</v>
       </c>
       <c r="M6" t="n">
-        <v>6.11407052272093</v>
+        <v>6.123998909340571</v>
       </c>
       <c r="N6" t="n">
-        <v>63.54893605003127</v>
+        <v>63.58266736365977</v>
       </c>
       <c r="O6" t="n">
-        <v>7.971758654778209</v>
+        <v>7.973874049899445</v>
       </c>
       <c r="P6" t="n">
-        <v>379.9490414565508</v>
+        <v>380.0147521532207</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31403,28 +31556,28 @@
         <v>0.0555</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09495019368134833</v>
+        <v>0.08496477548623806</v>
       </c>
       <c r="J7" t="n">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K7" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00703899510576389</v>
+        <v>0.005638629412321627</v>
       </c>
       <c r="M7" t="n">
-        <v>6.459355719460508</v>
+        <v>6.485468934291838</v>
       </c>
       <c r="N7" t="n">
-        <v>70.89869025943021</v>
+        <v>71.27652596695215</v>
       </c>
       <c r="O7" t="n">
-        <v>8.420136000055475</v>
+        <v>8.442542624526817</v>
       </c>
       <c r="P7" t="n">
-        <v>385.4587954439477</v>
+        <v>385.557932558635</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31481,28 +31634,28 @@
         <v>0.061</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05995948182355604</v>
+        <v>0.05488192660871161</v>
       </c>
       <c r="J8" t="n">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K8" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003776955474700916</v>
+        <v>0.003182319989429527</v>
       </c>
       <c r="M8" t="n">
-        <v>5.610704434690407</v>
+        <v>5.624684827564614</v>
       </c>
       <c r="N8" t="n">
-        <v>52.83285082645918</v>
+        <v>52.903850102154</v>
       </c>
       <c r="O8" t="n">
-        <v>7.268620971440124</v>
+        <v>7.273503289485335</v>
       </c>
       <c r="P8" t="n">
-        <v>382.1803684966369</v>
+        <v>382.2309539419757</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31559,28 +31712,28 @@
         <v>0.068</v>
       </c>
       <c r="I9" t="n">
-        <v>0.007617516336567176</v>
+        <v>0.002237366986546619</v>
       </c>
       <c r="J9" t="n">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K9" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L9" t="n">
-        <v>6.545148963021941e-05</v>
+        <v>5.672586724791984e-06</v>
       </c>
       <c r="M9" t="n">
-        <v>5.413662248659922</v>
+        <v>5.418658089632205</v>
       </c>
       <c r="N9" t="n">
-        <v>49.682354818622</v>
+        <v>49.67276889812622</v>
       </c>
       <c r="O9" t="n">
-        <v>7.04857111893056</v>
+        <v>7.047891095790727</v>
       </c>
       <c r="P9" t="n">
-        <v>379.1416040721128</v>
+        <v>379.1947760226882</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31637,28 +31790,28 @@
         <v>0.0665</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04885634657469683</v>
+        <v>-0.05163443686356196</v>
       </c>
       <c r="J10" t="n">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K10" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002380268697120047</v>
+        <v>0.002674072077247458</v>
       </c>
       <c r="M10" t="n">
-        <v>5.895518002748588</v>
+        <v>5.891113958772669</v>
       </c>
       <c r="N10" t="n">
-        <v>56.85922526540516</v>
+        <v>56.75714224687351</v>
       </c>
       <c r="O10" t="n">
-        <v>7.540505637250407</v>
+        <v>7.533733619320072</v>
       </c>
       <c r="P10" t="n">
-        <v>381.8498568800736</v>
+        <v>381.8772001467467</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31715,28 +31868,28 @@
         <v>0.0554</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.142940591492537</v>
+        <v>-0.1473070474031003</v>
       </c>
       <c r="J11" t="n">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K11" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0180376828562745</v>
+        <v>0.01923325368171003</v>
       </c>
       <c r="M11" t="n">
-        <v>6.150362067345271</v>
+        <v>6.148880490262146</v>
       </c>
       <c r="N11" t="n">
-        <v>63.39444943450626</v>
+        <v>63.32817195362696</v>
       </c>
       <c r="O11" t="n">
-        <v>7.962063139319246</v>
+        <v>7.957899971325786</v>
       </c>
       <c r="P11" t="n">
-        <v>379.9403793239724</v>
+        <v>379.9835129526305</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31793,28 +31946,28 @@
         <v>0.0404</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.250797371223816</v>
+        <v>-0.2572179532840298</v>
       </c>
       <c r="J12" t="n">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K12" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04087107308376492</v>
+        <v>0.04327925001364097</v>
       </c>
       <c r="M12" t="n">
-        <v>6.987558594347808</v>
+        <v>6.983967998164323</v>
       </c>
       <c r="N12" t="n">
-        <v>83.61464593777244</v>
+        <v>83.40401399888414</v>
       </c>
       <c r="O12" t="n">
-        <v>9.14410443607095</v>
+        <v>9.132579810704319</v>
       </c>
       <c r="P12" t="n">
-        <v>384.3229350203583</v>
+        <v>384.3858112815559</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31852,7 +32005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M595"/>
+  <dimension ref="A1:M598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66401,6 +66554,183 @@
         </is>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>-36.770252528364146,174.77256084839487</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr"/>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>-36.765810930991506,174.7681255758214</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>-36.76642695477476,174.76858110667044</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>-36.76708765671825,174.76893473218362</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>-36.76768499621438,174.76939435464877</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>-36.768192085338896,174.7700066194358</t>
+        </is>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>-36.768740980073225,174.77058256583774</t>
+        </is>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>-36.769180120494916,174.77126484160004</t>
+        </is>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>-36.7696233418744,174.77196530544984</t>
+        </is>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>-36.770198782192764,174.77253667558168</t>
+        </is>
+      </c>
+      <c r="M596" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>-36.770184279443335,174.77268413922184</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>-36.76513200635417,174.76781209315575</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>-36.76579903920245,174.7681548104041</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>-36.76641195213175,174.7686155927516</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr"/>
+      <c r="G597" t="inlineStr"/>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>-36.768123770932924,174.77009724318924</t>
+        </is>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>-36.77012737650448,174.77262503007057</t>
+        </is>
+      </c>
+      <c r="M597" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>-36.77021503234051,174.7726285845503</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>-36.76514449977259,174.76778141123032</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>-36.76584030741418,174.76805335718404</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>-36.76646801910237,174.7684867132695</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>-36.76708856487229,174.76893279705007</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>-36.76768114498935,174.76940070580733</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>-36.76822365454166,174.7699647406354</t>
+        </is>
+      </c>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>-36.76875213010843,174.77056860497362</t>
+        </is>
+      </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>-36.76924273911198,174.7712029713479</t>
+        </is>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>-36.76968208268604,174.77190640494416</t>
+        </is>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>-36.77015215773429,174.77259436681396</t>
+        </is>
+      </c>
+      <c r="M598" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0167/nzd0167.xlsx
+++ b/data/nzd0167/nzd0167.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M598"/>
+  <dimension ref="A1:M602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24694,6 +24694,186 @@
         </is>
       </c>
     </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>371.75</v>
+      </c>
+      <c r="C599" t="n">
+        <v>375.44</v>
+      </c>
+      <c r="D599" t="n">
+        <v>371.6254545454545</v>
+      </c>
+      <c r="E599" t="n">
+        <v>381.94</v>
+      </c>
+      <c r="F599" t="n">
+        <v>384.55</v>
+      </c>
+      <c r="G599" t="n">
+        <v>384.26</v>
+      </c>
+      <c r="H599" t="n">
+        <v>385.0266666666667</v>
+      </c>
+      <c r="I599" t="n">
+        <v>378.0392307692308</v>
+      </c>
+      <c r="J599" t="n">
+        <v>383.9992307692308</v>
+      </c>
+      <c r="K599" t="n">
+        <v>373.1054545454546</v>
+      </c>
+      <c r="L599" t="n">
+        <v>370.81</v>
+      </c>
+      <c r="M599" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>367.04</v>
+      </c>
+      <c r="C600" t="n">
+        <v>376.17</v>
+      </c>
+      <c r="D600" t="n">
+        <v>373.6090909090909</v>
+      </c>
+      <c r="E600" t="n">
+        <v>389.75</v>
+      </c>
+      <c r="F600" t="n">
+        <v>387.91</v>
+      </c>
+      <c r="G600" t="n">
+        <v>390.28</v>
+      </c>
+      <c r="H600" t="n">
+        <v>382.85</v>
+      </c>
+      <c r="I600" t="n">
+        <v>378.79</v>
+      </c>
+      <c r="J600" t="n">
+        <v>380.06</v>
+      </c>
+      <c r="K600" t="n">
+        <v>374.699090909091</v>
+      </c>
+      <c r="L600" t="n">
+        <v>368.66</v>
+      </c>
+      <c r="M600" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>373.23</v>
+      </c>
+      <c r="C601" t="n">
+        <v>376.94</v>
+      </c>
+      <c r="D601" t="n">
+        <v>371.9563636363636</v>
+      </c>
+      <c r="E601" t="n">
+        <v>372.79</v>
+      </c>
+      <c r="F601" t="n">
+        <v>373.23</v>
+      </c>
+      <c r="G601" t="n">
+        <v>383</v>
+      </c>
+      <c r="H601" t="n">
+        <v>382.87</v>
+      </c>
+      <c r="I601" t="n">
+        <v>378.3346153846153</v>
+      </c>
+      <c r="J601" t="n">
+        <v>381.4646153846153</v>
+      </c>
+      <c r="K601" t="n">
+        <v>373.0463636363637</v>
+      </c>
+      <c r="L601" t="n">
+        <v>375.26</v>
+      </c>
+      <c r="M601" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>374.39</v>
+      </c>
+      <c r="C602" t="n">
+        <v>379.47</v>
+      </c>
+      <c r="D602" t="n">
+        <v>374.2981818181818</v>
+      </c>
+      <c r="E602" t="n">
+        <v>373.9</v>
+      </c>
+      <c r="F602" t="n">
+        <v>380.11</v>
+      </c>
+      <c r="G602" t="n">
+        <v>385.38</v>
+      </c>
+      <c r="H602" t="n">
+        <v>384.75</v>
+      </c>
+      <c r="I602" t="n">
+        <v>378.0876923076923</v>
+      </c>
+      <c r="J602" t="n">
+        <v>382.9676923076924</v>
+      </c>
+      <c r="K602" t="n">
+        <v>377.6981818181818</v>
+      </c>
+      <c r="L602" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="M602" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24705,7 +24885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B628"/>
+  <dimension ref="A1:B632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30993,6 +31173,46 @@
       </c>
       <c r="B628" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
@@ -31166,28 +31386,28 @@
         <v>0.0404</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2693423657077935</v>
+        <v>-0.278286478108113</v>
       </c>
       <c r="J2" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K2" t="n">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L2" t="n">
-        <v>0.042818499650776</v>
+        <v>0.04615589080663962</v>
       </c>
       <c r="M2" t="n">
-        <v>7.356338412671687</v>
+        <v>7.34680740592726</v>
       </c>
       <c r="N2" t="n">
-        <v>91.45492089669423</v>
+        <v>91.0328964531848</v>
       </c>
       <c r="O2" t="n">
-        <v>9.5632066220852</v>
+        <v>9.541116101022187</v>
       </c>
       <c r="P2" t="n">
-        <v>384.3598853526198</v>
+        <v>384.4486938272893</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31244,28 +31464,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07026323297393633</v>
+        <v>-0.08431672349549206</v>
       </c>
       <c r="J3" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K3" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002683960357655613</v>
+        <v>0.003904508888400215</v>
       </c>
       <c r="M3" t="n">
-        <v>7.462674203262214</v>
+        <v>7.46686404135105</v>
       </c>
       <c r="N3" t="n">
-        <v>100.034130012618</v>
+        <v>99.73252376567378</v>
       </c>
       <c r="O3" t="n">
-        <v>10.00170635504852</v>
+        <v>9.986617233361544</v>
       </c>
       <c r="P3" t="n">
-        <v>387.0191106673664</v>
+        <v>387.1649802122435</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31322,28 +31542,28 @@
         <v>0.0558</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.07509840491435887</v>
+        <v>-0.08179778762950836</v>
       </c>
       <c r="J4" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K4" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007220855374840851</v>
+        <v>0.008669996459185203</v>
       </c>
       <c r="M4" t="n">
-        <v>5.005615395421349</v>
+        <v>4.999218758947555</v>
       </c>
       <c r="N4" t="n">
-        <v>42.84661928946249</v>
+        <v>42.63291249695294</v>
       </c>
       <c r="O4" t="n">
-        <v>6.545732906975543</v>
+        <v>6.529388370816438</v>
       </c>
       <c r="P4" t="n">
-        <v>378.9743265066487</v>
+        <v>379.0424800307956</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31400,28 +31620,28 @@
         <v>0.0505</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02784750388428706</v>
+        <v>0.02728458972181549</v>
       </c>
       <c r="J5" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K5" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0008460064834007186</v>
+        <v>0.0008196324415121747</v>
       </c>
       <c r="M5" t="n">
-        <v>5.577330552094555</v>
+        <v>5.583229412354591</v>
       </c>
       <c r="N5" t="n">
-        <v>51.49842874416282</v>
+        <v>51.46075436941575</v>
       </c>
       <c r="O5" t="n">
-        <v>7.17624057178707</v>
+        <v>7.173615153422698</v>
       </c>
       <c r="P5" t="n">
-        <v>379.2283432535062</v>
+        <v>379.234020605232</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31478,28 +31698,28 @@
         <v>0.0516</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05948176008879069</v>
+        <v>0.05930870109180428</v>
       </c>
       <c r="J6" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K6" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003147045600125575</v>
+        <v>0.003169030839983988</v>
       </c>
       <c r="M6" t="n">
-        <v>6.123998909340571</v>
+        <v>6.112967357490504</v>
       </c>
       <c r="N6" t="n">
-        <v>63.58266736365977</v>
+        <v>63.30842430548455</v>
       </c>
       <c r="O6" t="n">
-        <v>7.973874049899445</v>
+        <v>7.956659117084541</v>
       </c>
       <c r="P6" t="n">
-        <v>380.0147521532207</v>
+        <v>380.01650180733</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31556,28 +31776,28 @@
         <v>0.0555</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08496477548623806</v>
+        <v>0.08186826582860016</v>
       </c>
       <c r="J7" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K7" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005638629412321627</v>
+        <v>0.005317262540384449</v>
       </c>
       <c r="M7" t="n">
-        <v>6.485468934291838</v>
+        <v>6.459693978047202</v>
       </c>
       <c r="N7" t="n">
-        <v>71.27652596695215</v>
+        <v>70.79753378432548</v>
       </c>
       <c r="O7" t="n">
-        <v>8.442542624526817</v>
+        <v>8.414127036379085</v>
       </c>
       <c r="P7" t="n">
-        <v>385.557932558635</v>
+        <v>385.5888026072806</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31634,28 +31854,28 @@
         <v>0.061</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05488192660871161</v>
+        <v>0.0552163257906297</v>
       </c>
       <c r="J8" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K8" t="n">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003182319989429527</v>
+        <v>0.003273909080615645</v>
       </c>
       <c r="M8" t="n">
-        <v>5.624684827564614</v>
+        <v>5.587123676420887</v>
       </c>
       <c r="N8" t="n">
-        <v>52.903850102154</v>
+        <v>52.48341446988876</v>
       </c>
       <c r="O8" t="n">
-        <v>7.273503289485335</v>
+        <v>7.244543772377165</v>
       </c>
       <c r="P8" t="n">
-        <v>382.2309539419757</v>
+        <v>382.2276120216312</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31712,28 +31932,28 @@
         <v>0.068</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002237366986546619</v>
+        <v>0.0007913421458962869</v>
       </c>
       <c r="J9" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K9" t="n">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L9" t="n">
-        <v>5.672586724791984e-06</v>
+        <v>7.215493863510503e-07</v>
       </c>
       <c r="M9" t="n">
-        <v>5.418658089632205</v>
+        <v>5.381888891825821</v>
       </c>
       <c r="N9" t="n">
-        <v>49.67276889812622</v>
+        <v>49.27664991488509</v>
       </c>
       <c r="O9" t="n">
-        <v>7.047891095790727</v>
+        <v>7.019732894839026</v>
       </c>
       <c r="P9" t="n">
-        <v>379.1947760226882</v>
+        <v>379.2091172875061</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31790,28 +32010,28 @@
         <v>0.0665</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05163443686356196</v>
+        <v>-0.04921289671614692</v>
       </c>
       <c r="J10" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K10" t="n">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002674072077247458</v>
+        <v>0.002468764496294185</v>
       </c>
       <c r="M10" t="n">
-        <v>5.891113958772669</v>
+        <v>5.856214594359423</v>
       </c>
       <c r="N10" t="n">
-        <v>56.75714224687351</v>
+        <v>56.33029991808733</v>
       </c>
       <c r="O10" t="n">
-        <v>7.533733619320072</v>
+        <v>7.505351418693686</v>
       </c>
       <c r="P10" t="n">
-        <v>381.8772001467467</v>
+        <v>381.853342044612</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31868,28 +32088,28 @@
         <v>0.0554</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1473070474031003</v>
+        <v>-0.1496594021373568</v>
       </c>
       <c r="J11" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K11" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01923325368171003</v>
+        <v>0.02015113442584171</v>
       </c>
       <c r="M11" t="n">
-        <v>6.148880490262146</v>
+        <v>6.116920029165422</v>
       </c>
       <c r="N11" t="n">
-        <v>63.32817195362696</v>
+        <v>62.84500792481129</v>
       </c>
       <c r="O11" t="n">
-        <v>7.957899971325786</v>
+        <v>7.92748433772097</v>
       </c>
       <c r="P11" t="n">
-        <v>379.9835129526305</v>
+        <v>380.0067926812778</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31946,28 +32166,28 @@
         <v>0.0404</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2572179532840298</v>
+        <v>-0.2659102425628662</v>
       </c>
       <c r="J12" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K12" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04327925001364097</v>
+        <v>0.04670677971606607</v>
       </c>
       <c r="M12" t="n">
-        <v>6.983967998164323</v>
+        <v>6.980114164284371</v>
       </c>
       <c r="N12" t="n">
-        <v>83.40401399888414</v>
+        <v>83.01695991971683</v>
       </c>
       <c r="O12" t="n">
-        <v>9.132579810704319</v>
+        <v>9.111364328118858</v>
       </c>
       <c r="P12" t="n">
-        <v>384.3858112815559</v>
+        <v>384.4713249813612</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32005,7 +32225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M598"/>
+  <dimension ref="A1:M602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66731,6 +66951,274 @@
         </is>
       </c>
     </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>-36.7702138573964,174.77263070707176</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>-36.76516142895275,174.76773983570598</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>-36.76582681873615,174.76808651760476</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>-36.76642151095969,174.7685936201929</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>-36.76703630055784,174.76904416390985</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>-36.76763297752799,174.76948013996187</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>-36.76814500879196,174.77006906973656</t>
+        </is>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>-36.768711202682965,174.7706198498251</t>
+        </is>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>-36.76916227209424,174.7712824766679</t>
+        </is>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>-36.76963587818105,174.7719527350715</t>
+        </is>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>-36.77016978561485,174.77257255479464</t>
+        </is>
+      </c>
+      <c r="M599" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>-36.7702379182013,174.77258724150968</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>-36.76515845820822,174.7677471314123</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>-36.76581875287945,174.76810634660373</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>-36.76638803361232,174.76867057338973</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>-36.767021043536545,174.76907667410225</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>-36.76760032343182,174.76953399053656</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>-36.768158421092316,174.770051277403</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>-36.7687064359552,174.77062581819564</t>
+        </is>
+      </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>-36.76919006219955,174.77125501871893</t>
+        </is>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>-36.76962470008062,174.7719639435525</t>
+        </is>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>-36.77018351747571,174.77255556354075</t>
+        </is>
+      </c>
+      <c r="M600" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>-36.77020629688554,174.77264436503464</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>-36.765155324682674,174.7677548268828</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>-36.76582547319474,174.7680898254674</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>-36.76646073211843,174.76850346367175</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>-36.76708770212595,174.76893463542694</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>-36.767639812103305,174.7694688689055</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>-36.76815829785525,174.77005144088542</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>-36.76870932724913,174.77062219803656</t>
+        </is>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>-36.76918015305508,174.77126480942903</t>
+        </is>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>-36.769636292657076,174.77195231946888</t>
+        </is>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>-36.77014136384902,174.77260772271939</t>
+        </is>
+      </c>
+      <c r="M601" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>-36.770200371078694,174.77265506992254</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>-36.765145028809684,174.76778011199548</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>-36.76581595089914,174.7681132349534</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>-36.766455974145316,174.76851440069737</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>-36.76705646160853,174.76900120399262</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>-36.76762690234908,174.76949015867692</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>-36.768146713571454,174.7700668082305</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>-36.76871089499461,174.77062023507855</t>
+        </is>
+      </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>-36.76916954929287,174.77127528645119</t>
+        </is>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>-36.76960366382392,174.7719850369714</t>
+        </is>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>-36.77015068874406,174.77259618448176</t>
+        </is>
+      </c>
+      <c r="M602" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0167/nzd0167.xlsx
+++ b/data/nzd0167/nzd0167.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M602"/>
+  <dimension ref="A1:M604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24874,6 +24874,78 @@
         </is>
       </c>
     </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>375.3</v>
+      </c>
+      <c r="C603" t="n">
+        <v>380.83</v>
+      </c>
+      <c r="D603" t="n">
+        <v>368.5636363636364</v>
+      </c>
+      <c r="E603" t="n">
+        <v>376.35</v>
+      </c>
+      <c r="F603" t="n">
+        <v>374.82</v>
+      </c>
+      <c r="G603" t="n">
+        <v>379.87</v>
+      </c>
+      <c r="H603" t="n">
+        <v>380.41</v>
+      </c>
+      <c r="I603" t="n">
+        <v>378.7761538461539</v>
+      </c>
+      <c r="J603" t="n">
+        <v>381.8561538461539</v>
+      </c>
+      <c r="K603" t="n">
+        <v>377.8736363636364</v>
+      </c>
+      <c r="L603" t="n">
+        <v>375.32</v>
+      </c>
+      <c r="M603" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:11:56+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>377.63</v>
+      </c>
+      <c r="C604" t="inlineStr"/>
+      <c r="D604" t="inlineStr"/>
+      <c r="E604" t="inlineStr"/>
+      <c r="F604" t="inlineStr"/>
+      <c r="G604" t="inlineStr"/>
+      <c r="H604" t="inlineStr"/>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="n">
+        <v>378.46</v>
+      </c>
+      <c r="M604" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24885,7 +24957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B632"/>
+  <dimension ref="A1:B634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31213,6 +31285,26 @@
       </c>
       <c r="B632" t="n">
         <v>0.54</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>
@@ -31386,28 +31478,28 @@
         <v>0.0404</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.278286478108113</v>
+        <v>-0.2788573006668488</v>
       </c>
       <c r="J2" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K2" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04615589080663962</v>
+        <v>0.0467028177122597</v>
       </c>
       <c r="M2" t="n">
-        <v>7.34680740592726</v>
+        <v>7.321673628368554</v>
       </c>
       <c r="N2" t="n">
-        <v>91.0328964531848</v>
+        <v>90.66691338819598</v>
       </c>
       <c r="O2" t="n">
-        <v>9.541116101022187</v>
+        <v>9.521917526853295</v>
       </c>
       <c r="P2" t="n">
-        <v>384.4486938272893</v>
+        <v>384.4543742061869</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31464,28 +31556,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08431672349549206</v>
+        <v>-0.08609142720222004</v>
       </c>
       <c r="J3" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K3" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003904508888400215</v>
+        <v>0.004086092951751885</v>
       </c>
       <c r="M3" t="n">
-        <v>7.46686404135105</v>
+        <v>7.458912882204805</v>
       </c>
       <c r="N3" t="n">
-        <v>99.73252376567378</v>
+        <v>99.54068188850511</v>
       </c>
       <c r="O3" t="n">
-        <v>9.986617233361544</v>
+        <v>9.977007662045024</v>
       </c>
       <c r="P3" t="n">
-        <v>387.1649802122435</v>
+        <v>387.1834529401181</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31542,28 +31634,28 @@
         <v>0.0558</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08179778762950836</v>
+        <v>-0.0851616616036177</v>
       </c>
       <c r="J4" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K4" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008669996459185203</v>
+        <v>0.009397732892965971</v>
       </c>
       <c r="M4" t="n">
-        <v>4.999218758947555</v>
+        <v>5.006860846103149</v>
       </c>
       <c r="N4" t="n">
-        <v>42.63291249695294</v>
+        <v>42.69029465018709</v>
       </c>
       <c r="O4" t="n">
-        <v>6.529388370816438</v>
+        <v>6.533781037820834</v>
       </c>
       <c r="P4" t="n">
-        <v>379.0424800307956</v>
+        <v>379.0767944279858</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31620,28 +31712,28 @@
         <v>0.0505</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02728458972181549</v>
+        <v>0.02588941026892225</v>
       </c>
       <c r="J5" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K5" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0008196324415121747</v>
+        <v>0.0007406931962726793</v>
       </c>
       <c r="M5" t="n">
-        <v>5.583229412354591</v>
+        <v>5.579805957624796</v>
       </c>
       <c r="N5" t="n">
-        <v>51.46075436941575</v>
+        <v>51.38061234279934</v>
       </c>
       <c r="O5" t="n">
-        <v>7.173615153422698</v>
+        <v>7.168027088592742</v>
       </c>
       <c r="P5" t="n">
-        <v>379.234020605232</v>
+        <v>379.2480021417929</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31698,28 +31790,28 @@
         <v>0.0516</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05930870109180428</v>
+        <v>0.05672231503344288</v>
       </c>
       <c r="J6" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K6" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003169030839983988</v>
+        <v>0.002907194021627868</v>
       </c>
       <c r="M6" t="n">
-        <v>6.112967357490504</v>
+        <v>6.11419422319484</v>
       </c>
       <c r="N6" t="n">
-        <v>63.30842430548455</v>
+        <v>63.27116615442076</v>
       </c>
       <c r="O6" t="n">
-        <v>7.956659117084541</v>
+        <v>7.954317453711585</v>
       </c>
       <c r="P6" t="n">
-        <v>380.01650180733</v>
+        <v>380.0421591551275</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31776,28 +31868,28 @@
         <v>0.0555</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08186826582860016</v>
+        <v>0.07888453734071017</v>
       </c>
       <c r="J7" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K7" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005317262540384449</v>
+        <v>0.004950256084720994</v>
       </c>
       <c r="M7" t="n">
-        <v>6.459693978047202</v>
+        <v>6.462260140877389</v>
       </c>
       <c r="N7" t="n">
-        <v>70.79753378432548</v>
+        <v>70.77830986120048</v>
       </c>
       <c r="O7" t="n">
-        <v>8.414127036379085</v>
+        <v>8.412984598892386</v>
       </c>
       <c r="P7" t="n">
-        <v>385.5888026072806</v>
+        <v>385.6186162972197</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31854,28 +31946,28 @@
         <v>0.061</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0552163257906297</v>
+        <v>0.05397703939211501</v>
       </c>
       <c r="J8" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K8" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003273909080615645</v>
+        <v>0.003140527237442625</v>
       </c>
       <c r="M8" t="n">
-        <v>5.587123676420887</v>
+        <v>5.582926483768942</v>
       </c>
       <c r="N8" t="n">
-        <v>52.48341446988876</v>
+        <v>52.39846554477154</v>
       </c>
       <c r="O8" t="n">
-        <v>7.244543772377165</v>
+        <v>7.238678439105549</v>
       </c>
       <c r="P8" t="n">
-        <v>382.2276120216312</v>
+        <v>382.2400324394893</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31932,28 +32024,28 @@
         <v>0.068</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0007913421458962869</v>
+        <v>0.0006171396655340251</v>
       </c>
       <c r="J9" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K9" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L9" t="n">
-        <v>7.215493863510503e-07</v>
+        <v>4.406619259489375e-07</v>
       </c>
       <c r="M9" t="n">
-        <v>5.381888891825821</v>
+        <v>5.371843531757393</v>
       </c>
       <c r="N9" t="n">
-        <v>49.27664991488509</v>
+        <v>49.1771119384994</v>
       </c>
       <c r="O9" t="n">
-        <v>7.019732894839026</v>
+        <v>7.012639441643881</v>
       </c>
       <c r="P9" t="n">
-        <v>379.2091172875061</v>
+        <v>379.2108494453769</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32010,28 +32102,28 @@
         <v>0.0665</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04921289671614692</v>
+        <v>-0.04872383732831977</v>
       </c>
       <c r="J10" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K10" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002468764496294185</v>
+        <v>0.002429881750170781</v>
       </c>
       <c r="M10" t="n">
-        <v>5.856214594359423</v>
+        <v>5.846530543714661</v>
       </c>
       <c r="N10" t="n">
-        <v>56.33029991808733</v>
+        <v>56.21844681504788</v>
       </c>
       <c r="O10" t="n">
-        <v>7.505351418693686</v>
+        <v>7.497896159260135</v>
       </c>
       <c r="P10" t="n">
-        <v>381.853342044612</v>
+        <v>381.8485106437714</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32088,28 +32180,28 @@
         <v>0.0554</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1496594021373568</v>
+        <v>-0.1489816250701979</v>
       </c>
       <c r="J11" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K11" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02015113442584171</v>
+        <v>0.02005140401167016</v>
       </c>
       <c r="M11" t="n">
-        <v>6.116920029165422</v>
+        <v>6.107632838200203</v>
       </c>
       <c r="N11" t="n">
-        <v>62.84500792481129</v>
+        <v>62.71969481504522</v>
       </c>
       <c r="O11" t="n">
-        <v>7.92748433772097</v>
+        <v>7.91957668155598</v>
       </c>
       <c r="P11" t="n">
-        <v>380.0067926812778</v>
+        <v>380.0000643533126</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32166,28 +32258,28 @@
         <v>0.0404</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2659102425628662</v>
+        <v>-0.266420887715003</v>
       </c>
       <c r="J12" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K12" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04670677971606607</v>
+        <v>0.04724943170635698</v>
       </c>
       <c r="M12" t="n">
-        <v>6.980114164284371</v>
+        <v>6.95816994791155</v>
       </c>
       <c r="N12" t="n">
-        <v>83.01695991971683</v>
+        <v>82.68459194795244</v>
       </c>
       <c r="O12" t="n">
-        <v>9.111364328118858</v>
+        <v>9.093106836937112</v>
       </c>
       <c r="P12" t="n">
-        <v>384.4713249813612</v>
+        <v>384.4763554885652</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32225,7 +32317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M602"/>
+  <dimension ref="A1:M604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67219,6 +67311,104 @@
         </is>
       </c>
     </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>-36.77019572238474,174.7726634677214</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>-36.765139494267125,174.76779370398995</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>-36.76583926868646,174.7680559107822</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>-36.76644547230933,174.7685385409742</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>-36.767080482300265,174.768950019737</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>-36.76765679005184,174.76944087016153</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>-36.768173456011,174.7700313325439</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>-36.76870652386617,174.77062570812325</t>
+        </is>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>-36.769177390867355,174.77126753860242</t>
+        </is>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>-36.76960243314859,174.7719862709904</t>
+        </is>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>-36.77014098063414,174.7726081968935</t>
+        </is>
+      </c>
+      <c r="M603" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:11:56+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>-36.77018381968224,174.77268496977305</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr"/>
+      <c r="D604" t="inlineStr"/>
+      <c r="E604" t="inlineStr"/>
+      <c r="F604" t="inlineStr"/>
+      <c r="G604" t="inlineStr"/>
+      <c r="H604" t="inlineStr"/>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>-36.77012092571921,174.77263301199756</t>
+        </is>
+      </c>
+      <c r="M604" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0167/nzd0167.xlsx
+++ b/data/nzd0167/nzd0167.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M604"/>
+  <dimension ref="A1:M605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24946,6 +24946,51 @@
         </is>
       </c>
     </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>359.55</v>
+      </c>
+      <c r="C605" t="n">
+        <v>374.04</v>
+      </c>
+      <c r="D605" t="n">
+        <v>361.4036363636364</v>
+      </c>
+      <c r="E605" t="n">
+        <v>362.93</v>
+      </c>
+      <c r="F605" t="n">
+        <v>370.47</v>
+      </c>
+      <c r="G605" t="n">
+        <v>374.38</v>
+      </c>
+      <c r="H605" t="n">
+        <v>370.69</v>
+      </c>
+      <c r="I605" t="n">
+        <v>368.9215384615384</v>
+      </c>
+      <c r="J605" t="n">
+        <v>371.0515384615384</v>
+      </c>
+      <c r="K605" t="n">
+        <v>363.8936363636364</v>
+      </c>
+      <c r="L605" t="n">
+        <v>360.19</v>
+      </c>
+      <c r="M605" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24957,7 +25002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B634"/>
+  <dimension ref="A1:B635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31305,6 +31350,16 @@
       </c>
       <c r="B634" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>-0.75</v>
       </c>
     </row>
   </sheetData>
@@ -32317,7 +32372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M604"/>
+  <dimension ref="A1:M605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67409,6 +67464,73 @@
         </is>
       </c>
     </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>-36.77027618046898,174.7725181210581</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>-36.765167126269816,174.76772584393876</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>-36.76586838261416,174.76798433730605</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>-36.76650299659356,174.7684063112936</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>-36.76710023464899,174.7689079305799</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>-36.767686569249854,174.76939176051337</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>-36.76823334918016,174.7699518799949</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>-36.768769092029345,174.7705473670854</t>
+        </is>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>-36.769253614202825,174.77119222621377</t>
+        </is>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>-36.76970049179063,174.77188794576816</t>
+        </is>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>-36.770237614598265,174.77248862584446</t>
+        </is>
+      </c>
+      <c r="M605" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0167/nzd0167.xlsx
+++ b/data/nzd0167/nzd0167.xlsx
@@ -31533,28 +31533,28 @@
         <v>0.0404</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2788573006668488</v>
+        <v>-0.285645066190592</v>
       </c>
       <c r="J2" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K2" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0467028177122597</v>
+        <v>0.04876061890723549</v>
       </c>
       <c r="M2" t="n">
-        <v>7.321673628368554</v>
+        <v>7.345463483353772</v>
       </c>
       <c r="N2" t="n">
-        <v>90.66691338819598</v>
+        <v>91.11448584583988</v>
       </c>
       <c r="O2" t="n">
-        <v>9.521917526853295</v>
+        <v>9.545390816820435</v>
       </c>
       <c r="P2" t="n">
-        <v>384.4543742061869</v>
+        <v>384.522193648133</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31611,28 +31611,28 @@
         <v>0.0519</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08609142720222004</v>
+        <v>-0.09076038760044744</v>
       </c>
       <c r="J3" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K3" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004086092951751885</v>
+        <v>0.0045467066755015</v>
       </c>
       <c r="M3" t="n">
-        <v>7.458912882204805</v>
+        <v>7.466140787421618</v>
       </c>
       <c r="N3" t="n">
-        <v>99.54068188850511</v>
+        <v>99.58341129632569</v>
       </c>
       <c r="O3" t="n">
-        <v>9.977007662045024</v>
+        <v>9.979148826243934</v>
       </c>
       <c r="P3" t="n">
-        <v>387.1834529401181</v>
+        <v>387.2322207194142</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31689,28 +31689,28 @@
         <v>0.0558</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0851616616036177</v>
+        <v>-0.09138627673883236</v>
       </c>
       <c r="J4" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K4" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009397732892965971</v>
+        <v>0.01072505507283195</v>
       </c>
       <c r="M4" t="n">
-        <v>5.006860846103149</v>
+        <v>5.030008582684183</v>
       </c>
       <c r="N4" t="n">
-        <v>42.69029465018709</v>
+        <v>43.10786882957262</v>
       </c>
       <c r="O4" t="n">
-        <v>6.533781037820834</v>
+        <v>6.565658293695509</v>
       </c>
       <c r="P4" t="n">
-        <v>379.0767944279858</v>
+        <v>379.1405069502248</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31767,28 +31767,28 @@
         <v>0.0505</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02588941026892225</v>
+        <v>0.01929052113760248</v>
       </c>
       <c r="J5" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K5" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0007406931962726793</v>
+        <v>0.000408349251721285</v>
       </c>
       <c r="M5" t="n">
-        <v>5.579805957624796</v>
+        <v>5.606536171144037</v>
       </c>
       <c r="N5" t="n">
-        <v>51.38061234279934</v>
+        <v>51.86835841070949</v>
       </c>
       <c r="O5" t="n">
-        <v>7.168027088592742</v>
+        <v>7.201969064825917</v>
       </c>
       <c r="P5" t="n">
-        <v>379.2480021417929</v>
+        <v>379.3143572194028</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31845,28 +31845,28 @@
         <v>0.0516</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05672231503344288</v>
+        <v>0.0524801314557606</v>
       </c>
       <c r="J6" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K6" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002907194021627868</v>
+        <v>0.002490230043937003</v>
       </c>
       <c r="M6" t="n">
-        <v>6.11419422319484</v>
+        <v>6.124239776419703</v>
       </c>
       <c r="N6" t="n">
-        <v>63.27116615442076</v>
+        <v>63.38996453561068</v>
       </c>
       <c r="O6" t="n">
-        <v>7.954317453711585</v>
+        <v>7.961781492581336</v>
       </c>
       <c r="P6" t="n">
-        <v>380.0421591551275</v>
+        <v>380.0843856982063</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31923,28 +31923,28 @@
         <v>0.0555</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07888453734071017</v>
+        <v>0.07382828716132046</v>
       </c>
       <c r="J7" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K7" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004950256084720994</v>
+        <v>0.004335021875198297</v>
       </c>
       <c r="M7" t="n">
-        <v>6.462260140877389</v>
+        <v>6.475395309832233</v>
       </c>
       <c r="N7" t="n">
-        <v>70.77830986120048</v>
+        <v>70.98810556491911</v>
       </c>
       <c r="O7" t="n">
-        <v>8.412984598892386</v>
+        <v>8.425443938744065</v>
       </c>
       <c r="P7" t="n">
-        <v>385.6186162972197</v>
+        <v>385.6693076395504</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32001,28 +32001,28 @@
         <v>0.061</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05397703939211501</v>
+        <v>0.04903969220982183</v>
       </c>
       <c r="J8" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K8" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003140527237442625</v>
+        <v>0.002587674362832248</v>
       </c>
       <c r="M8" t="n">
-        <v>5.582926483768942</v>
+        <v>5.600169955874365</v>
       </c>
       <c r="N8" t="n">
-        <v>52.39846554477154</v>
+        <v>52.62970304166233</v>
       </c>
       <c r="O8" t="n">
-        <v>7.238678439105549</v>
+        <v>7.254633212069534</v>
       </c>
       <c r="P8" t="n">
-        <v>382.2400324394893</v>
+        <v>382.2896830302664</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32079,28 +32079,28 @@
         <v>0.068</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0006171396655340251</v>
+        <v>-0.003341660846221835</v>
       </c>
       <c r="J9" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K9" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L9" t="n">
-        <v>4.406619259489375e-07</v>
+        <v>1.291766735134203e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>5.371843531757393</v>
+        <v>5.380671904815224</v>
       </c>
       <c r="N9" t="n">
-        <v>49.1771119384994</v>
+        <v>49.29121654721043</v>
       </c>
       <c r="O9" t="n">
-        <v>7.012639441643881</v>
+        <v>7.020770367075855</v>
       </c>
       <c r="P9" t="n">
-        <v>379.2108494453769</v>
+        <v>379.2503451945709</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32157,28 +32157,28 @@
         <v>0.0665</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04872383732831977</v>
+        <v>-0.05235796050920466</v>
       </c>
       <c r="J10" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K10" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002429881750170781</v>
+        <v>0.002807229369514941</v>
       </c>
       <c r="M10" t="n">
-        <v>5.846530543714661</v>
+        <v>5.856365883884559</v>
       </c>
       <c r="N10" t="n">
-        <v>56.21844681504788</v>
+        <v>56.2878014796232</v>
       </c>
       <c r="O10" t="n">
-        <v>7.497896159260135</v>
+        <v>7.502519675390608</v>
       </c>
       <c r="P10" t="n">
-        <v>381.8485106437714</v>
+        <v>381.8845352133281</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32235,28 +32235,28 @@
         <v>0.0554</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1489816250701979</v>
+        <v>-0.1536954845499348</v>
       </c>
       <c r="J11" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K11" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02005140401167016</v>
+        <v>0.02129590444400864</v>
       </c>
       <c r="M11" t="n">
-        <v>6.107632838200203</v>
+        <v>6.121297370658573</v>
       </c>
       <c r="N11" t="n">
-        <v>62.71969481504522</v>
+        <v>62.89909221222497</v>
       </c>
       <c r="O11" t="n">
-        <v>7.91957668155598</v>
+        <v>7.930894792658957</v>
       </c>
       <c r="P11" t="n">
-        <v>380.0000643533126</v>
+        <v>380.0470229804332</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32313,28 +32313,28 @@
         <v>0.0404</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.266420887715003</v>
+        <v>-0.2731264957791603</v>
       </c>
       <c r="J12" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K12" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04724943170635698</v>
+        <v>0.04938467668786184</v>
       </c>
       <c r="M12" t="n">
-        <v>6.95816994791155</v>
+        <v>6.985747132169156</v>
       </c>
       <c r="N12" t="n">
-        <v>82.68459194795244</v>
+        <v>83.1321375119777</v>
       </c>
       <c r="O12" t="n">
-        <v>9.093106836937112</v>
+        <v>9.117682683224817</v>
       </c>
       <c r="P12" t="n">
-        <v>384.4763554885652</v>
+        <v>384.542742865853</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">

--- a/data/nzd0167/nzd0167.xlsx
+++ b/data/nzd0167/nzd0167.xlsx
@@ -31527,10 +31527,10 @@
         <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0386</v>
+        <v>0.0392</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0404</v>
+        <v>0.0447</v>
       </c>
       <c r="I2" t="n">
         <v>-0.285645066190592</v>
@@ -31602,13 +31602,13 @@
         <v>0.4255473794147158</v>
       </c>
       <c r="F3" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0424</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.05</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0519</v>
       </c>
       <c r="I3" t="n">
         <v>-0.09076038760044706</v>
@@ -31680,13 +31680,13 @@
         <v>0.4732662954583399</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0498</v>
+        <v>0.0594</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0558</v>
+        <v>0.0718</v>
       </c>
       <c r="I4" t="n">
         <v>-0.09134749674718994</v>
@@ -31758,13 +31758,13 @@
         <v>0.5210090399890213</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0482</v>
+        <v>0.0523</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0505</v>
+        <v>0.065</v>
       </c>
       <c r="I5" t="n">
         <v>0.01929052113760266</v>
@@ -31836,13 +31836,13 @@
         <v>0.5687545787764028</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0494</v>
+        <v>0.0597</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0516</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>0.05248013145576053</v>
@@ -31914,13 +31914,13 @@
         <v>0.6163224687943873</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0497</v>
+        <v>0.063</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0555</v>
+        <v>0.0825</v>
       </c>
       <c r="I7" t="n">
         <v>0.07382828716132053</v>
@@ -31992,13 +31992,13 @@
         <v>0.6640680075810752</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0579</v>
+        <v>0.0757</v>
       </c>
       <c r="H8" t="n">
-        <v>0.061</v>
+        <v>0.0999</v>
       </c>
       <c r="I8" t="n">
         <v>0.04902979406002039</v>
@@ -32070,13 +32070,13 @@
         <v>0.7117987750507274</v>
       </c>
       <c r="F9" t="n">
-        <v>0.065</v>
+        <v>0.095</v>
       </c>
       <c r="G9" t="n">
-        <v>0.064</v>
+        <v>0.0833</v>
       </c>
       <c r="H9" t="n">
-        <v>0.068</v>
+        <v>0.112</v>
       </c>
       <c r="I9" t="n">
         <v>-0.003318386818842072</v>
@@ -32148,13 +32148,13 @@
         <v>0.7595376102552391</v>
       </c>
       <c r="F10" t="n">
-        <v>0.065</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0641</v>
+        <v>0.0742</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0665</v>
+        <v>0.0944</v>
       </c>
       <c r="I10" t="n">
         <v>-0.05234056368938502</v>
@@ -32226,13 +32226,13 @@
         <v>0.8070834400233298</v>
       </c>
       <c r="F11" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>0.053</v>
+        <v>0.0551</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0554</v>
+        <v>0.0663</v>
       </c>
       <c r="I11" t="n">
         <v>-0.1536493591918061</v>
@@ -32304,13 +32304,13 @@
         <v>0.8546098733738033</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0392</v>
+        <v>0.0409</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0404</v>
+        <v>0.0464</v>
       </c>
       <c r="I12" t="n">
         <v>-0.2731264957791603</v>

--- a/data/nzd0167/nzd0167.xlsx
+++ b/data/nzd0167/nzd0167.xlsx
@@ -25123,7 +25123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B638"/>
+  <dimension ref="A1:B639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31511,6 +31511,16 @@
       </c>
       <c r="B638" t="n">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>-0.43</v>
       </c>
     </row>
   </sheetData>
